--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64C360-B3BF-1544-B0EC-7F8CAAE8BA95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A7F175-AA65-2E41-A783-AB5F80C67349}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" activeTab="6" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="158">
   <si>
     <t>RxnID</t>
   </si>
@@ -751,7 +751,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1222,499 +1222,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.7933592638269614E-2"/>
-                  <c:y val="-8.9483266901972364E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>chemostat_data_1!$R$2:$R$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>chemostat_data_1!$S$2:$S$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.2864316584792892</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6545936133000492</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4060201749740209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.521150984968299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.2248807909655</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.242509015470601</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.7669234450372</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.2816381812092</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.779380979682301</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.2190686876895</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-91C0-9541-B566-1EF23B4B1786}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2030989119"/>
-        <c:axId val="2033421855"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2030989119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Specific growth</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> rate (1/h)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.30280824415330543"/>
-              <c:y val="0.85369886690992891"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2033421855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2033421855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="40"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ATP production rate</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(mmol/gCDW/h)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.4019221429230672E-2"/>
-              <c:y val="9.7560975609756101E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2030989119"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2073,788 +1581,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>chemostat_data_1!$U$2:$U$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>chemostat_data_1!$V$2:$V$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>9.2992247900000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6576574199999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4104712799999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.023853599999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.808033500000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.057835300000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.684630500000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.266458</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.004562400000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27.463487000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AD9-B84B-BCCC-5CFFE46F8C6D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2117115791"/>
-        <c:axId val="2117117471"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2117115791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2117117471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2117117471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2117115791"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>chemostat_data_1!$R$23:$R$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>chemostat_data_1!$S$23:$S$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.26149586699559</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6271574008403107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3840949880464706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.4328740274188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.1659571649177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.2425090154704</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.442950396907602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.995678746228201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.601597683952701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.526368379267801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F79-D24F-9F0D-44964D3A40C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="148638927"/>
-        <c:axId val="234622383"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="148638927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="234622383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="234622383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="148638927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2896,126 +1622,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4087,1554 +2693,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5680,42 +2738,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>321141</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>188570</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>479891</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127743</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5861DF6-A7E1-AD4C-85C0-2AE7CAD2BDCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -5744,79 +2766,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD16975-8F0E-7E40-9E81-3790C32D69D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6C16E9-A4C0-3542-8670-11400C5F04D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7183,7 +4133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2152771E-AF90-2144-B614-18711C52EB3C}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -16696,10 +13646,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30311E4-68BA-2D4C-A676-3CF9B7C04A34}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23:S32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16708,7 +13658,7 @@
     <col min="15" max="15" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>60</v>
       </c>
@@ -16754,14 +13704,8 @@
       <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -16804,23 +13748,8 @@
       <c r="N2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2">
-        <v>-4.6704699999999999</v>
-      </c>
-      <c r="R2">
-        <v>0.15</v>
-      </c>
-      <c r="S2">
-        <v>8.2864316584792892</v>
-      </c>
-      <c r="U2">
-        <v>0.15</v>
-      </c>
-      <c r="V2">
-        <v>9.2992247900000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -16863,23 +13792,8 @@
       <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3">
-        <v>-4.7056399999999998</v>
-      </c>
-      <c r="R3">
-        <v>0.15</v>
-      </c>
-      <c r="S3">
-        <v>8.6545936133000492</v>
-      </c>
-      <c r="U3">
-        <v>0.15</v>
-      </c>
-      <c r="V3">
-        <v>9.6576574199999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -16922,23 +13836,8 @@
       <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4">
-        <v>-4.5427</v>
-      </c>
-      <c r="R4">
-        <v>0.15</v>
-      </c>
-      <c r="S4">
-        <v>8.4060201749740209</v>
-      </c>
-      <c r="U4">
-        <v>0.15</v>
-      </c>
-      <c r="V4">
-        <v>9.4104712799999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -16981,23 +13880,8 @@
       <c r="N5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5">
-        <v>-8.9038400000000006</v>
-      </c>
-      <c r="R5">
-        <v>0.3</v>
-      </c>
-      <c r="S5">
-        <v>15.521150984968299</v>
-      </c>
-      <c r="U5">
-        <v>0.3</v>
-      </c>
-      <c r="V5">
-        <v>17.023853599999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -17040,23 +13924,8 @@
       <c r="N6" t="s">
         <v>57</v>
       </c>
-      <c r="Q6">
-        <v>-9.3071400000000004</v>
-      </c>
-      <c r="R6">
-        <v>0.3</v>
-      </c>
-      <c r="S6">
-        <v>15.2248807909655</v>
-      </c>
-      <c r="U6">
-        <v>0.3</v>
-      </c>
-      <c r="V6">
-        <v>16.808033500000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -17099,23 +13968,8 @@
       <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="Q7">
-        <v>-8.9268000000000001</v>
-      </c>
-      <c r="R7">
-        <v>0.3</v>
-      </c>
-      <c r="S7">
-        <v>13.242509015470601</v>
-      </c>
-      <c r="U7">
-        <v>0.3</v>
-      </c>
-      <c r="V7">
-        <v>15.057835300000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -17158,20 +14012,8 @@
       <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="R8">
-        <v>0.45</v>
-      </c>
-      <c r="S8">
-        <v>19.7669234450372</v>
-      </c>
-      <c r="U8">
-        <v>0.45</v>
-      </c>
-      <c r="V8">
-        <v>21.684630500000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -17214,20 +14056,8 @@
       <c r="N9" t="s">
         <v>57</v>
       </c>
-      <c r="R9">
-        <v>0.5</v>
-      </c>
-      <c r="S9">
-        <v>20.2816381812092</v>
-      </c>
-      <c r="U9">
-        <v>0.5</v>
-      </c>
-      <c r="V9">
-        <v>24.266458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -17270,20 +14100,8 @@
       <c r="N10" t="s">
         <v>57</v>
       </c>
-      <c r="R10">
-        <v>0.5</v>
-      </c>
-      <c r="S10">
-        <v>21.779380979682301</v>
-      </c>
-      <c r="U10">
-        <v>0.5</v>
-      </c>
-      <c r="V10">
-        <v>24.004562400000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -17326,20 +14144,8 @@
       <c r="N11" t="s">
         <v>57</v>
       </c>
-      <c r="R11">
-        <v>0.6</v>
-      </c>
-      <c r="S11">
-        <v>26.2190686876895</v>
-      </c>
-      <c r="U11">
-        <v>0.6</v>
-      </c>
-      <c r="V11">
-        <v>27.463487000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -17383,7 +14189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -17427,7 +14233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -17471,7 +14277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -17515,7 +14321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -17559,7 +14365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -17603,7 +14409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -17647,7 +14453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -17691,7 +14497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -17735,7 +14541,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -17779,7 +14585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -17823,7 +14629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -17866,14 +14672,8 @@
       <c r="N23" t="s">
         <v>57</v>
       </c>
-      <c r="R23">
-        <v>0.15</v>
-      </c>
-      <c r="S23">
-        <v>8.26149586699559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -17916,14 +14716,8 @@
       <c r="N24" t="s">
         <v>57</v>
       </c>
-      <c r="R24">
-        <v>0.15</v>
-      </c>
-      <c r="S24">
-        <v>8.6271574008403107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -17966,14 +14760,8 @@
       <c r="N25" t="s">
         <v>57</v>
       </c>
-      <c r="R25">
-        <v>0.15</v>
-      </c>
-      <c r="S25">
-        <v>8.3840949880464706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -18016,14 +14804,8 @@
       <c r="N26" t="s">
         <v>57</v>
       </c>
-      <c r="R26">
-        <v>0.3</v>
-      </c>
-      <c r="S26">
-        <v>15.4328740274188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -18066,14 +14848,8 @@
       <c r="N27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R27">
-        <v>0.3</v>
-      </c>
-      <c r="S27">
-        <v>15.1659571649177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -18116,14 +14892,8 @@
       <c r="N28" t="s">
         <v>57</v>
       </c>
-      <c r="R28">
-        <v>0.3</v>
-      </c>
-      <c r="S28">
-        <v>13.2425090154704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -18166,14 +14936,8 @@
       <c r="N29" t="s">
         <v>57</v>
       </c>
-      <c r="R29">
-        <v>0.45</v>
-      </c>
-      <c r="S29">
-        <v>19.442950396907602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -18216,14 +14980,8 @@
       <c r="N30" t="s">
         <v>57</v>
       </c>
-      <c r="R30">
-        <v>0.5</v>
-      </c>
-      <c r="S30">
-        <v>19.995678746228201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -18266,14 +15024,8 @@
       <c r="N31" t="s">
         <v>57</v>
       </c>
-      <c r="R31">
-        <v>0.5</v>
-      </c>
-      <c r="S31">
-        <v>21.601597683952701</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -18316,15 +15068,9 @@
       <c r="N32" t="s">
         <v>57</v>
       </c>
-      <c r="R32">
-        <v>0.6</v>
-      </c>
-      <c r="S32">
-        <v>23.526368379267801</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O55">
     <sortCondition ref="A13:A55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A7F175-AA65-2E41-A783-AB5F80C67349}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EDE440-1117-A649-8D80-463C2A5B90E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" activeTab="6" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" activeTab="7" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="AA_factors" sheetId="10" r:id="rId5"/>
     <sheet name="MaxMu" sheetId="7" r:id="rId6"/>
     <sheet name="chemostat_data_1" sheetId="5" r:id="rId7"/>
-    <sheet name="Exchange_rates" sheetId="11" r:id="rId8"/>
+    <sheet name="chemostat_data_2" sheetId="14" r:id="rId8"/>
+    <sheet name="Exchange_rates" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
   <si>
     <t>RxnID</t>
   </si>
@@ -512,6 +513,66 @@
   </si>
   <si>
     <t>R_M_EX_zn2_e</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>asp</t>
+  </si>
+  <si>
+    <t>glu</t>
+  </si>
+  <si>
+    <t>asn</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>gln</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>gly</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>tyr</t>
+  </si>
+  <si>
+    <t>cys</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>trp</t>
+  </si>
+  <si>
+    <t>phe</t>
+  </si>
+  <si>
+    <t>ile</t>
+  </si>
+  <si>
+    <t>leu</t>
+  </si>
+  <si>
+    <t>lys</t>
   </si>
 </sst>
 </file>
@@ -12863,7 +12924,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13648,8 +13709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30311E4-68BA-2D4C-A676-3CF9B7C04A34}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15080,6 +15141,1727 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9155A941-5177-8C4D-8B40-F5E1428A09EB}">
+  <dimension ref="A1:AR13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.15</v>
+      </c>
+      <c r="B2">
+        <v>4.4950363063049087E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.2218771793618931E-3</v>
+      </c>
+      <c r="D2">
+        <v>-8.6410462967738636E-3</v>
+      </c>
+      <c r="E2">
+        <v>7.7905542552799399E-4</v>
+      </c>
+      <c r="F2">
+        <v>-6.8384886524493399E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.191588080455235E-3</v>
+      </c>
+      <c r="H2">
+        <v>-0.3100368739527205</v>
+      </c>
+      <c r="I2">
+        <v>2.7905937161392964E-2</v>
+      </c>
+      <c r="J2">
+        <v>-9.0823856009560458E-2</v>
+      </c>
+      <c r="K2">
+        <v>8.2390453078299043E-3</v>
+      </c>
+      <c r="L2">
+        <v>-1.4732284754900985E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.3307117642685777E-3</v>
+      </c>
+      <c r="N2">
+        <v>-4.6661393931525783E-2</v>
+      </c>
+      <c r="O2">
+        <v>4.1959575973073999E-3</v>
+      </c>
+      <c r="P2">
+        <v>-0.10554380732342465</v>
+      </c>
+      <c r="Q2">
+        <v>9.5248778971262476E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.9482170717677879E-2</v>
+      </c>
+      <c r="S2">
+        <v>1.7510687794647934E-3</v>
+      </c>
+      <c r="T2">
+        <v>-0.27819185761024662</v>
+      </c>
+      <c r="U2">
+        <v>2.5046265605336147E-2</v>
+      </c>
+      <c r="V2">
+        <v>-0.11510318901169957</v>
+      </c>
+      <c r="W2">
+        <v>1.0363314114156655E-2</v>
+      </c>
+      <c r="X2">
+        <v>-1.6947786853880199E-2</v>
+      </c>
+      <c r="Y2">
+        <v>1.5308006594512906E-3</v>
+      </c>
+      <c r="Z2">
+        <v>-2.0101866981057873E-2</v>
+      </c>
+      <c r="AA2">
+        <v>1.9571364758603116E-3</v>
+      </c>
+      <c r="AB2">
+        <v>-9.5285719053601323E-2</v>
+      </c>
+      <c r="AC2">
+        <v>8.6032348224287219E-3</v>
+      </c>
+      <c r="AD2">
+        <v>-4.6640560820582641E-2</v>
+      </c>
+      <c r="AE2">
+        <v>4.1895062057980357E-3</v>
+      </c>
+      <c r="AF2">
+        <v>-2.5811702578316852E-2</v>
+      </c>
+      <c r="AG2">
+        <v>2.3293383254920715E-3</v>
+      </c>
+      <c r="AH2">
+        <v>-3.3936288421526843E-2</v>
+      </c>
+      <c r="AI2">
+        <v>3.058304416978532E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.1066211062911665</v>
+      </c>
+      <c r="AK2">
+        <v>9.6347640598860376E-3</v>
+      </c>
+      <c r="AL2">
+        <v>0.21566181769496032</v>
+      </c>
+      <c r="AM2">
+        <v>2.008742415596566E-2</v>
+      </c>
+      <c r="AN2">
+        <v>-0.13541225990260372</v>
+      </c>
+      <c r="AO2">
+        <v>1.2219428933463738E-2</v>
+      </c>
+      <c r="AP2">
+        <v>-7.1385265182356855E-2</v>
+      </c>
+      <c r="AQ2">
+        <v>6.5232098743967818E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
+      <c r="B3">
+        <v>3.354425116970422E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.0549664734339042E-3</v>
+      </c>
+      <c r="D3">
+        <v>-1.5366304952539246E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.2800177196506924E-3</v>
+      </c>
+      <c r="F3">
+        <v>-7.6147776208425791E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.13163693773447E-2</v>
+      </c>
+      <c r="H3">
+        <v>-0.31765674540117705</v>
+      </c>
+      <c r="I3">
+        <v>4.710443116419253E-2</v>
+      </c>
+      <c r="J3">
+        <v>-8.9724206796598177E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.3343502412853061E-2</v>
+      </c>
+      <c r="L3">
+        <v>-1.4308750069418556E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.1245676811066688E-3</v>
+      </c>
+      <c r="N3">
+        <v>-4.2531669799388494E-2</v>
+      </c>
+      <c r="O3">
+        <v>6.3047111105980656E-3</v>
+      </c>
+      <c r="P3">
+        <v>-0.10798181876098747</v>
+      </c>
+      <c r="Q3">
+        <v>1.6027887543707871E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.5729864035753103E-2</v>
+      </c>
+      <c r="S3">
+        <v>3.8134135496250316E-3</v>
+      </c>
+      <c r="T3">
+        <v>-0.28182137088484094</v>
+      </c>
+      <c r="U3">
+        <v>4.1794592386892593E-2</v>
+      </c>
+      <c r="V3">
+        <v>-9.3464048479572889E-2</v>
+      </c>
+      <c r="W3">
+        <v>1.3861028444053887E-2</v>
+      </c>
+      <c r="X3">
+        <v>-1.79115056138065E-2</v>
+      </c>
+      <c r="Y3">
+        <v>2.6594872662875392E-3</v>
+      </c>
+      <c r="Z3">
+        <v>-2.1781921910230668E-2</v>
+      </c>
+      <c r="AA3">
+        <v>3.3296235044539928E-3</v>
+      </c>
+      <c r="AB3">
+        <v>-0.10022287904946359</v>
+      </c>
+      <c r="AC3">
+        <v>1.4878843532409477E-2</v>
+      </c>
+      <c r="AD3">
+        <v>-3.4005793185637088E-2</v>
+      </c>
+      <c r="AE3">
+        <v>5.0388478505845099E-3</v>
+      </c>
+      <c r="AF3">
+        <v>-2.8088581381207268E-2</v>
+      </c>
+      <c r="AG3">
+        <v>4.1691880470496722E-3</v>
+      </c>
+      <c r="AH3">
+        <v>-3.4552108917452147E-2</v>
+      </c>
+      <c r="AI3">
+        <v>5.1259552275774844E-3</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.11045326005716347</v>
+      </c>
+      <c r="AK3">
+        <v>1.6402706969471031E-2</v>
+      </c>
+      <c r="AL3">
+        <v>0.22146506896243123</v>
+      </c>
+      <c r="AM3">
+        <v>3.3266400749677121E-2</v>
+      </c>
+      <c r="AN3">
+        <v>-0.13676636779976778</v>
+      </c>
+      <c r="AO3">
+        <v>2.0299834222772001E-2</v>
+      </c>
+      <c r="AP3">
+        <v>-6.1132114872025002E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>9.1162602552998899E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.15</v>
+      </c>
+      <c r="B4">
+        <v>2.7662527360833387E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.2710706049186352E-3</v>
+      </c>
+      <c r="D4">
+        <v>-2.0041274971229501E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.5472392159318339E-4</v>
+      </c>
+      <c r="F4">
+        <v>-7.7373616594841599E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.9839803286080954E-3</v>
+      </c>
+      <c r="H4">
+        <v>-0.31327309118182661</v>
+      </c>
+      <c r="I4">
+        <v>1.168512985033747E-2</v>
+      </c>
+      <c r="J4">
+        <v>-8.7147192869795498E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.3964043978860683E-3</v>
+      </c>
+      <c r="L4">
+        <v>-1.4612916337921618E-2</v>
+      </c>
+      <c r="M4">
+        <v>5.5617615122931241E-4</v>
+      </c>
+      <c r="N4">
+        <v>-4.4481955299879868E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.65004829377555E-3</v>
+      </c>
+      <c r="P4">
+        <v>-0.10688136867668839</v>
+      </c>
+      <c r="Q4">
+        <v>4.0475055205734575E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.7262928480360573E-2</v>
+      </c>
+      <c r="S4">
+        <v>1.0084698733391912E-3</v>
+      </c>
+      <c r="T4">
+        <v>-0.2762717487617426</v>
+      </c>
+      <c r="U4">
+        <v>1.0320898005952713E-2</v>
+      </c>
+      <c r="V4">
+        <v>-9.7254778413033843E-2</v>
+      </c>
+      <c r="W4">
+        <v>3.6338411099852285E-3</v>
+      </c>
+      <c r="X4">
+        <v>-1.981974312307918E-2</v>
+      </c>
+      <c r="Y4">
+        <v>7.5427036959781646E-4</v>
+      </c>
+      <c r="Z4">
+        <v>-2.1190378509441367E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.1150510995117113E-3</v>
+      </c>
+      <c r="AB4">
+        <v>-9.9044932584710393E-2</v>
+      </c>
+      <c r="AC4">
+        <v>3.7609050910401313E-3</v>
+      </c>
+      <c r="AD4">
+        <v>-3.4920412487390411E-2</v>
+      </c>
+      <c r="AE4">
+        <v>1.2870336507727538E-3</v>
+      </c>
+      <c r="AF4">
+        <v>-2.5772036003850425E-2</v>
+      </c>
+      <c r="AG4">
+        <v>9.7582776360966689E-4</v>
+      </c>
+      <c r="AH4">
+        <v>-3.4928528475536305E-2</v>
+      </c>
+      <c r="AI4">
+        <v>1.3121297861844283E-3</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.10894926414946336</v>
+      </c>
+      <c r="AK4">
+        <v>4.1565604750989664E-3</v>
+      </c>
+      <c r="AL4">
+        <v>0.20969334832645756</v>
+      </c>
+      <c r="AM4">
+        <v>9.2963689269952056E-3</v>
+      </c>
+      <c r="AN4">
+        <v>-0.13476709905883277</v>
+      </c>
+      <c r="AO4">
+        <v>5.1012623455519192E-3</v>
+      </c>
+      <c r="AP4">
+        <v>-6.659657296079205E-2</v>
+      </c>
+      <c r="AQ4">
+        <v>2.6970763362803305E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>2.2795905300494072E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.7309761166019746E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.0229887137269108E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.364315088352297E-4</v>
+      </c>
+      <c r="F5">
+        <v>-0.15479410921705711</v>
+      </c>
+      <c r="G5">
+        <v>1.8136901767049411E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.58087199865466954</v>
+      </c>
+      <c r="I5">
+        <v>6.7821110482890343E-2</v>
+      </c>
+      <c r="J5">
+        <v>-0.21151554588822394</v>
+      </c>
+      <c r="K5">
+        <v>2.4811325641387386E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.7666351238022854E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.2370341206680721E-3</v>
+      </c>
+      <c r="N5">
+        <v>-7.4248036952096891E-2</v>
+      </c>
+      <c r="O5">
+        <v>8.6641494860123219E-3</v>
+      </c>
+      <c r="P5">
+        <v>-0.19570152208715547</v>
+      </c>
+      <c r="Q5">
+        <v>2.288542028857643E-2</v>
+      </c>
+      <c r="R5">
+        <v>6.4593803906072528E-2</v>
+      </c>
+      <c r="S5">
+        <v>7.5354399279947666E-3</v>
+      </c>
+      <c r="T5">
+        <v>-0.53040919628980288</v>
+      </c>
+      <c r="U5">
+        <v>6.1938977543404182E-2</v>
+      </c>
+      <c r="V5">
+        <v>-0.2078381092528688</v>
+      </c>
+      <c r="W5">
+        <v>2.4270892212592671E-2</v>
+      </c>
+      <c r="X5">
+        <v>-3.6639321318536415E-2</v>
+      </c>
+      <c r="Y5">
+        <v>4.2868461544285459E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-3.8452449520074233E-2</v>
+      </c>
+      <c r="AA5">
+        <v>4.7110015719141092E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-0.17960849076822241</v>
+      </c>
+      <c r="AC5">
+        <v>2.1009467075258616E-2</v>
+      </c>
+      <c r="AD5">
+        <v>-5.9239543789964676E-2</v>
+      </c>
+      <c r="AE5">
+        <v>6.9082990789944817E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-6.0103165309255614E-2</v>
+      </c>
+      <c r="AG5">
+        <v>7.0283865236568958E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-6.3463126620749544E-2</v>
+      </c>
+      <c r="AI5">
+        <v>7.4152004747665146E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.20352656755972498</v>
+      </c>
+      <c r="AK5">
+        <v>2.3819145888937333E-2</v>
+      </c>
+      <c r="AL5">
+        <v>0.4082560937242718</v>
+      </c>
+      <c r="AM5">
+        <v>4.866032745007693E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-0.24941884452175994</v>
+      </c>
+      <c r="AO5">
+        <v>2.9165797804149969E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-0.11468152246493664</v>
+      </c>
+      <c r="AQ5">
+        <v>1.3511575951380594E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>-5.8744274574528505E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.8593052700596708E-4</v>
+      </c>
+      <c r="D6">
+        <v>3.8987272056519506E-3</v>
+      </c>
+      <c r="E6">
+        <v>5.1140515764015694E-4</v>
+      </c>
+      <c r="F6">
+        <v>-0.14907536225547591</v>
+      </c>
+      <c r="G6">
+        <v>1.9593826573588605E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.56432940105279417</v>
+      </c>
+      <c r="I6">
+        <v>7.3966603750001803E-2</v>
+      </c>
+      <c r="J6">
+        <v>-0.20452086843510631</v>
+      </c>
+      <c r="K6">
+        <v>2.6905908171659845E-2</v>
+      </c>
+      <c r="L6">
+        <v>-2.5907389553139683E-2</v>
+      </c>
+      <c r="M6">
+        <v>3.4013382527290914E-3</v>
+      </c>
+      <c r="N6">
+        <v>-6.7164472236368636E-2</v>
+      </c>
+      <c r="O6">
+        <v>8.7993260455533212E-3</v>
+      </c>
+      <c r="P6">
+        <v>-0.18637440091958107</v>
+      </c>
+      <c r="Q6">
+        <v>2.4458466352754574E-2</v>
+      </c>
+      <c r="R6">
+        <v>6.736570328122729E-2</v>
+      </c>
+      <c r="S6">
+        <v>8.8237035684864424E-3</v>
+      </c>
+      <c r="T6">
+        <v>-0.50463270430241669</v>
+      </c>
+      <c r="U6">
+        <v>6.6150446122789364E-2</v>
+      </c>
+      <c r="V6">
+        <v>-0.18182851686704105</v>
+      </c>
+      <c r="W6">
+        <v>2.3835561648182436E-2</v>
+      </c>
+      <c r="X6">
+        <v>-2.9083516106488384E-2</v>
+      </c>
+      <c r="Y6">
+        <v>3.8182923358356098E-3</v>
+      </c>
+      <c r="Z6">
+        <v>-4.7458008376856438E-2</v>
+      </c>
+      <c r="AA6">
+        <v>6.4649151340190831E-3</v>
+      </c>
+      <c r="AB6">
+        <v>-0.16998088755481683</v>
+      </c>
+      <c r="AC6">
+        <v>2.2312134048257413E-2</v>
+      </c>
+      <c r="AD6">
+        <v>-4.9861829574286982E-2</v>
+      </c>
+      <c r="AE6">
+        <v>6.529120574658708E-3</v>
+      </c>
+      <c r="AF6">
+        <v>-5.1223249224507619E-2</v>
+      </c>
+      <c r="AG6">
+        <v>6.7221005666064978E-3</v>
+      </c>
+      <c r="AH6">
+        <v>-5.6415740909087624E-2</v>
+      </c>
+      <c r="AI6">
+        <v>7.3986905902475985E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.19098705886694944</v>
+      </c>
+      <c r="AK6">
+        <v>2.5079404890245162E-2</v>
+      </c>
+      <c r="AL6">
+        <v>0.39487054992058451</v>
+      </c>
+      <c r="AM6">
+        <v>5.2613370695391258E-2</v>
+      </c>
+      <c r="AN6">
+        <v>-0.23694824878979748</v>
+      </c>
+      <c r="AO6">
+        <v>3.1094280430438093E-2</v>
+      </c>
+      <c r="AP6">
+        <v>-9.3492083744097385E-2</v>
+      </c>
+      <c r="AQ6">
+        <v>1.2342430897345866E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7">
+        <v>0.13048681118503469</v>
+      </c>
+      <c r="C7">
+        <v>6.1983091053996143E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.6338810236282437E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.4367477960601565E-3</v>
+      </c>
+      <c r="F7">
+        <v>-0.10814959931853728</v>
+      </c>
+      <c r="G7">
+        <v>4.3695426420549384E-3</v>
+      </c>
+      <c r="H7">
+        <v>-0.48121928490399002</v>
+      </c>
+      <c r="I7">
+        <v>1.8862063852774259E-2</v>
+      </c>
+      <c r="J7">
+        <v>-0.16327725917473973</v>
+      </c>
+      <c r="K7">
+        <v>6.660365895885199E-3</v>
+      </c>
+      <c r="L7">
+        <v>-1.8411391010381434E-2</v>
+      </c>
+      <c r="M7">
+        <v>7.3499638382654078E-4</v>
+      </c>
+      <c r="N7">
+        <v>-4.9588638265110278E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.934007792242048E-3</v>
+      </c>
+      <c r="P7">
+        <v>-0.15625626877243698</v>
+      </c>
+      <c r="Q7">
+        <v>6.2093520551212839E-3</v>
+      </c>
+      <c r="R7">
+        <v>6.9812754280421052E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.715847096833817E-3</v>
+      </c>
+      <c r="T7">
+        <v>-0.43690924727960945</v>
+      </c>
+      <c r="U7">
+        <v>1.7149235324299787E-2</v>
+      </c>
+      <c r="V7">
+        <v>-0.10112457008822141</v>
+      </c>
+      <c r="W7">
+        <v>3.9698785721873223E-3</v>
+      </c>
+      <c r="X7">
+        <v>-2.5894115574478634E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.0336118311291939E-3</v>
+      </c>
+      <c r="Z7">
+        <v>-1.4056506811783429E-2</v>
+      </c>
+      <c r="AA7">
+        <v>7.587894954546215E-4</v>
+      </c>
+      <c r="AB7">
+        <v>-0.13019012067791563</v>
+      </c>
+      <c r="AC7">
+        <v>5.1862553317488609E-3</v>
+      </c>
+      <c r="AD7">
+        <v>-4.7411040583241214E-2</v>
+      </c>
+      <c r="AE7">
+        <v>1.8383240826716266E-3</v>
+      </c>
+      <c r="AF7">
+        <v>-3.7881875784667882E-2</v>
+      </c>
+      <c r="AG7">
+        <v>1.5051677760276954E-3</v>
+      </c>
+      <c r="AH7">
+        <v>-3.9710566857329738E-2</v>
+      </c>
+      <c r="AI7">
+        <v>1.5665664521868634E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.16149174872067185</v>
+      </c>
+      <c r="AK7">
+        <v>6.460845158706402E-3</v>
+      </c>
+      <c r="AL7">
+        <v>0.3785554908847758</v>
+      </c>
+      <c r="AM7">
+        <v>1.7390851580152553E-2</v>
+      </c>
+      <c r="AN7">
+        <v>-0.19979676487548881</v>
+      </c>
+      <c r="AO7">
+        <v>7.9363942709339847E-3</v>
+      </c>
+      <c r="AP7">
+        <v>-5.5616708423571172E-2</v>
+      </c>
+      <c r="AQ7">
+        <v>2.3498992103447324E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>0.11197622114393735</v>
+      </c>
+      <c r="C8">
+        <v>4.8075441166047774E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.1349474552091848</v>
+      </c>
+      <c r="E8">
+        <v>4.5765470225213253E-3</v>
+      </c>
+      <c r="F8">
+        <v>-0.25403600504282492</v>
+      </c>
+      <c r="G8">
+        <v>8.8705268800750702E-3</v>
+      </c>
+      <c r="H8">
+        <v>-0.93738529258028214</v>
+      </c>
+      <c r="I8">
+        <v>3.1416648421954373E-2</v>
+      </c>
+      <c r="J8">
+        <v>-0.38721509737130244</v>
+      </c>
+      <c r="K8">
+        <v>1.3694925722109098E-2</v>
+      </c>
+      <c r="L8">
+        <v>-3.2640033170485819E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.1214955409528415E-3</v>
+      </c>
+      <c r="N8">
+        <v>-0.10359332070702622</v>
+      </c>
+      <c r="O8">
+        <v>3.4482579563661132E-3</v>
+      </c>
+      <c r="P8">
+        <v>-0.28677978034961771</v>
+      </c>
+      <c r="Q8">
+        <v>9.7927611654280745E-3</v>
+      </c>
+      <c r="R8">
+        <v>0.14226279761659555</v>
+      </c>
+      <c r="S8">
+        <v>4.7188941913310538E-3</v>
+      </c>
+      <c r="T8">
+        <v>-0.8094741466601767</v>
+      </c>
+      <c r="U8">
+        <v>2.7181596458007527E-2</v>
+      </c>
+      <c r="V8">
+        <v>-0.26802363569516796</v>
+      </c>
+      <c r="W8">
+        <v>9.0019506647402627E-3</v>
+      </c>
+      <c r="X8">
+        <v>-4.2670729362507022E-2</v>
+      </c>
+      <c r="Y8">
+        <v>1.465952987313767E-3</v>
+      </c>
+      <c r="Z8">
+        <v>-2.6260288301916429E-2</v>
+      </c>
+      <c r="AA8">
+        <v>1.3132503722233927E-3</v>
+      </c>
+      <c r="AB8">
+        <v>-0.17432284519290484</v>
+      </c>
+      <c r="AC8">
+        <v>5.9724803645006515E-3</v>
+      </c>
+      <c r="AD8">
+        <v>-6.4920415879019255E-2</v>
+      </c>
+      <c r="AE8">
+        <v>2.1436983900053061E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-7.0609432839171857E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.4107064553050531E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-6.1136053659371616E-2</v>
+      </c>
+      <c r="AI8">
+        <v>2.0670697215025885E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.24249491890515618</v>
+      </c>
+      <c r="AK8">
+        <v>8.3563781888843294E-3</v>
+      </c>
+      <c r="AL8">
+        <v>0.6195883909222919</v>
+      </c>
+      <c r="AM8">
+        <v>2.552671758966513E-2</v>
+      </c>
+      <c r="AN8">
+        <v>-0.28374555251797157</v>
+      </c>
+      <c r="AO8">
+        <v>9.6838923397201872E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-0.13870406368391877</v>
+      </c>
+      <c r="AQ8">
+        <v>5.1378848464440699E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.45</v>
+      </c>
+      <c r="B9">
+        <v>9.8795188217087784E-2</v>
+      </c>
+      <c r="C9">
+        <v>9.7304389511775197E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.1164945457150337</v>
+      </c>
+      <c r="E9">
+        <v>1.1056133055919603E-2</v>
+      </c>
+      <c r="F9">
+        <v>-0.22944910963558812</v>
+      </c>
+      <c r="G9">
+        <v>2.1859744879603644E-2</v>
+      </c>
+      <c r="H9">
+        <v>-0.84504092813523557</v>
+      </c>
+      <c r="I9">
+        <v>8.0080520643811159E-2</v>
+      </c>
+      <c r="J9">
+        <v>-0.35430368101598869</v>
+      </c>
+      <c r="K9">
+        <v>3.3813387818625647E-2</v>
+      </c>
+      <c r="L9">
+        <v>-3.3356979959535238E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.1711527895628075E-3</v>
+      </c>
+      <c r="N9">
+        <v>-9.9851166101947747E-2</v>
+      </c>
+      <c r="O9">
+        <v>9.454369136983479E-3</v>
+      </c>
+      <c r="P9">
+        <v>-0.26320822110350645</v>
+      </c>
+      <c r="Q9">
+        <v>2.50023223994565E-2</v>
+      </c>
+      <c r="R9">
+        <v>0.12889701078385629</v>
+      </c>
+      <c r="S9">
+        <v>1.2199305061218801E-2</v>
+      </c>
+      <c r="T9">
+        <v>-0.78924782799579396</v>
+      </c>
+      <c r="U9">
+        <v>7.4811189819348187E-2</v>
+      </c>
+      <c r="V9">
+        <v>-0.26471196750163045</v>
+      </c>
+      <c r="W9">
+        <v>2.5092170786402405E-2</v>
+      </c>
+      <c r="X9">
+        <v>-2.8305349453521211E-2</v>
+      </c>
+      <c r="Y9">
+        <v>2.6908625941475242E-3</v>
+      </c>
+      <c r="Z9">
+        <v>-2.6706797322599975E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.7180756093531269E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-0.17050345193774535</v>
+      </c>
+      <c r="AC9">
+        <v>1.6203214968998719E-2</v>
+      </c>
+      <c r="AD9">
+        <v>-6.1181467665943394E-2</v>
+      </c>
+      <c r="AE9">
+        <v>5.7872406646758837E-3</v>
+      </c>
+      <c r="AF9">
+        <v>-7.8002505884984752E-2</v>
+      </c>
+      <c r="AG9">
+        <v>7.4093440559842476E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-6.0960446307989025E-2</v>
+      </c>
+      <c r="AI9">
+        <v>5.7833339520908982E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.22716938750035481</v>
+      </c>
+      <c r="AK9">
+        <v>2.1604606967375924E-2</v>
+      </c>
+      <c r="AL9">
+        <v>0.61004428128870769</v>
+      </c>
+      <c r="AM9">
+        <v>5.9630331262108587E-2</v>
+      </c>
+      <c r="AN9">
+        <v>-0.27939193583638761</v>
+      </c>
+      <c r="AO9">
+        <v>2.6537763392906297E-2</v>
+      </c>
+      <c r="AP9">
+        <v>-0.14655298401481354</v>
+      </c>
+      <c r="AQ9">
+        <v>1.4079234898472973E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10">
+        <v>5.1836690495872487E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.2444426519100725E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.11382739494132241</v>
+      </c>
+      <c r="E10">
+        <v>3.9127156442031533E-3</v>
+      </c>
+      <c r="F10">
+        <v>-0.29402561967575386</v>
+      </c>
+      <c r="G10">
+        <v>1.0398470383282071E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.94762463817309595</v>
+      </c>
+      <c r="I10">
+        <v>3.2201380620517292E-2</v>
+      </c>
+      <c r="J10">
+        <v>-0.37574491644198765</v>
+      </c>
+      <c r="K10">
+        <v>1.345528008018282E-2</v>
+      </c>
+      <c r="L10">
+        <v>-3.3767377632626425E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.1755833821585123E-3</v>
+      </c>
+      <c r="N10">
+        <v>-0.10399414915028597</v>
+      </c>
+      <c r="O10">
+        <v>3.5103859407755399E-3</v>
+      </c>
+      <c r="P10">
+        <v>-0.29249286002200892</v>
+      </c>
+      <c r="Q10">
+        <v>1.0121649213801459E-2</v>
+      </c>
+      <c r="R10">
+        <v>0.14532221083651503</v>
+      </c>
+      <c r="S10">
+        <v>4.8887849334602607E-3</v>
+      </c>
+      <c r="T10">
+        <v>-0.79222551198819713</v>
+      </c>
+      <c r="U10">
+        <v>2.6970851753024324E-2</v>
+      </c>
+      <c r="V10">
+        <v>-0.29814394267237093</v>
+      </c>
+      <c r="W10">
+        <v>1.0152217206035189E-2</v>
+      </c>
+      <c r="X10">
+        <v>-2.7745437272876136E-2</v>
+      </c>
+      <c r="Y10">
+        <v>9.6581105697823616E-4</v>
+      </c>
+      <c r="Z10">
+        <v>-3.465442780435872E-2</v>
+      </c>
+      <c r="AA10">
+        <v>1.7438958751946044E-3</v>
+      </c>
+      <c r="AB10">
+        <v>-0.18946712202247035</v>
+      </c>
+      <c r="AC10">
+        <v>6.5777272934232035E-3</v>
+      </c>
+      <c r="AD10">
+        <v>-6.358315779521978E-2</v>
+      </c>
+      <c r="AE10">
+        <v>2.1296067466313059E-3</v>
+      </c>
+      <c r="AF10">
+        <v>-8.2098304445642215E-2</v>
+      </c>
+      <c r="AG10">
+        <v>2.8405153747873787E-3</v>
+      </c>
+      <c r="AH10">
+        <v>-6.1831284415759871E-2</v>
+      </c>
+      <c r="AI10">
+        <v>2.119138645444817E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>-0.24691592546902894</v>
+      </c>
+      <c r="AK10">
+        <v>8.6206669515868431E-3</v>
+      </c>
+      <c r="AL10">
+        <v>0.61865417204417505</v>
+      </c>
+      <c r="AM10">
+        <v>2.5723278437154742E-2</v>
+      </c>
+      <c r="AN10">
+        <v>-0.28482489367619479</v>
+      </c>
+      <c r="AO10">
+        <v>9.8510927082817463E-3</v>
+      </c>
+      <c r="AP10">
+        <v>-0.1563236473557971</v>
+      </c>
+      <c r="AQ10">
+        <v>5.8565384822690412E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <v>-0.18766945520287712</v>
+      </c>
+      <c r="C11">
+        <v>5.801134557803656E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.9894066404581953E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.2222918697752309E-4</v>
+      </c>
+      <c r="F11">
+        <v>-0.45249540961061269</v>
+      </c>
+      <c r="G11">
+        <v>8.2388437788616826E-3</v>
+      </c>
+      <c r="H11">
+        <v>-1.3592728833214938</v>
+      </c>
+      <c r="I11">
+        <v>2.0858985153675711E-2</v>
+      </c>
+      <c r="J11">
+        <v>-0.57694530793503673</v>
+      </c>
+      <c r="K11">
+        <v>1.0993794515681851E-2</v>
+      </c>
+      <c r="L11">
+        <v>-6.6672698611713016E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.1408595079198968E-3</v>
+      </c>
+      <c r="N11">
+        <v>-0.19952445715849162</v>
+      </c>
+      <c r="O11">
+        <v>2.9608552633301746E-3</v>
+      </c>
+      <c r="P11">
+        <v>-0.40102537430790269</v>
+      </c>
+      <c r="Q11">
+        <v>6.6895757781945224E-3</v>
+      </c>
+      <c r="R11">
+        <v>3.0016559745709822E-2</v>
+      </c>
+      <c r="S11">
+        <v>4.3755088292462792E-4</v>
+      </c>
+      <c r="T11">
+        <v>-0.3406202798622302</v>
+      </c>
+      <c r="U11">
+        <v>5.2745943032200251E-3</v>
+      </c>
+      <c r="V11">
+        <v>-0.59028045535251894</v>
+      </c>
+      <c r="W11">
+        <v>9.149706231713732E-3</v>
+      </c>
+      <c r="X11">
+        <v>-7.7973524414910067E-2</v>
+      </c>
+      <c r="Y11">
+        <v>1.3335258752945275E-3</v>
+      </c>
+      <c r="Z11">
+        <v>-0.11027099199886925</v>
+      </c>
+      <c r="AA11">
+        <v>4.4288883036850196E-3</v>
+      </c>
+      <c r="AB11">
+        <v>-0.31983703665650531</v>
+      </c>
+      <c r="AC11">
+        <v>5.4093172983919373E-3</v>
+      </c>
+      <c r="AD11">
+        <v>-0.11152703849321621</v>
+      </c>
+      <c r="AE11">
+        <v>1.5873291252881999E-3</v>
+      </c>
+      <c r="AF11">
+        <v>-0.11824056940252546</v>
+      </c>
+      <c r="AG11">
+        <v>1.9709638864869577E-3</v>
+      </c>
+      <c r="AH11">
+        <v>-0.13570090714825506</v>
+      </c>
+      <c r="AI11">
+        <v>2.1686872062507863E-3</v>
+      </c>
+      <c r="AJ11">
+        <v>-0.3478535954829739</v>
+      </c>
+      <c r="AK11">
+        <v>6.0221356788999099E-3</v>
+      </c>
+      <c r="AL11">
+        <v>3.1983528205196003E-2</v>
+      </c>
+      <c r="AM11">
+        <v>9.1005311249571974E-4</v>
+      </c>
+      <c r="AN11">
+        <v>-0.40702020276813883</v>
+      </c>
+      <c r="AO11">
+        <v>6.7741233173816001E-3</v>
+      </c>
+      <c r="AP11">
+        <v>-0.35994959828529582</v>
+      </c>
+      <c r="AQ11">
+        <v>7.9216452679560668E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.61</v>
+      </c>
+      <c r="B12">
+        <v>8.9217874665109859E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.6898518729002829E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.19032288847275927</v>
+      </c>
+      <c r="E12">
+        <v>2.7959366601188382E-3</v>
+      </c>
+      <c r="F12">
+        <v>-0.35614982395420414</v>
+      </c>
+      <c r="G12">
+        <v>6.0122409464640056E-3</v>
+      </c>
+      <c r="H12">
+        <v>-1.1517733863246433</v>
+      </c>
+      <c r="I12">
+        <v>1.5832167122829165E-2</v>
+      </c>
+      <c r="J12">
+        <v>-0.53022400648705104</v>
+      </c>
+      <c r="K12">
+        <v>9.4338060162409906E-3</v>
+      </c>
+      <c r="L12">
+        <v>-3.5019530344800563E-2</v>
+      </c>
+      <c r="M12">
+        <v>5.4954747642932129E-4</v>
+      </c>
+      <c r="N12">
+        <v>-0.1175362508342869</v>
+      </c>
+      <c r="O12">
+        <v>1.5489482611729724E-3</v>
+      </c>
+      <c r="P12">
+        <v>-0.27512575865624822</v>
+      </c>
+      <c r="Q12">
+        <v>4.1880728213805219E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.8191091170038639E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.3433911485732747E-4</v>
+      </c>
+      <c r="T12">
+        <v>-0.13283438021656929</v>
+      </c>
+      <c r="U12">
+        <v>1.8466029756920206E-3</v>
+      </c>
+      <c r="V12">
+        <v>-0.31294303117943645</v>
+      </c>
+      <c r="W12">
+        <v>4.3557403408258227E-3</v>
+      </c>
+      <c r="X12">
+        <v>-2.4814594002322464E-2</v>
+      </c>
+      <c r="Y12">
+        <v>3.8916050420555892E-4</v>
+      </c>
+      <c r="Z12">
+        <v>-3.3754457266198128E-2</v>
+      </c>
+      <c r="AA12">
+        <v>1.3360031183316124E-3</v>
+      </c>
+      <c r="AB12">
+        <v>-0.15890925834918687</v>
+      </c>
+      <c r="AC12">
+        <v>2.4592459373549811E-3</v>
+      </c>
+      <c r="AD12">
+        <v>-7.2945028407366871E-2</v>
+      </c>
+      <c r="AE12">
+        <v>9.1116745410120483E-4</v>
+      </c>
+      <c r="AF12">
+        <v>-0.1011099673228652</v>
+      </c>
+      <c r="AG12">
+        <v>1.5377974471265778E-3</v>
+      </c>
+      <c r="AH12">
+        <v>-5.9461113193070625E-2</v>
+      </c>
+      <c r="AI12">
+        <v>8.5933952522821583E-4</v>
+      </c>
+      <c r="AJ12">
+        <v>-0.20803965174624581</v>
+      </c>
+      <c r="AK12">
+        <v>3.3102129442765869E-3</v>
+      </c>
+      <c r="AL12">
+        <v>1.7225912353249901E-2</v>
+      </c>
+      <c r="AM12">
+        <v>4.7584651160558861E-4</v>
+      </c>
+      <c r="AN12">
+        <v>-0.26263161570962196</v>
+      </c>
+      <c r="AO12">
+        <v>3.9869526943700972E-3</v>
+      </c>
+      <c r="AP12">
+        <v>-0.1945430183078368</v>
+      </c>
+      <c r="AQ12">
+        <v>4.0705368780392746E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="B13">
+        <v>4.1561919915088827E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.3583123211059354E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.1337249054628506</v>
+      </c>
+      <c r="E13">
+        <v>2.5893088951158181E-3</v>
+      </c>
+      <c r="F13">
+        <v>-0.39446057980540328</v>
+      </c>
+      <c r="G13">
+        <v>8.3126305867249357E-3</v>
+      </c>
+      <c r="H13">
+        <v>-1.3531931676254445</v>
+      </c>
+      <c r="I13">
+        <v>2.5245785968939789E-2</v>
+      </c>
+      <c r="J13">
+        <v>-0.55603417015342116</v>
+      </c>
+      <c r="K13">
+        <v>1.2127061940272884E-2</v>
+      </c>
+      <c r="L13">
+        <v>-5.2528197996147649E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.0575937538469687E-3</v>
+      </c>
+      <c r="N13">
+        <v>-0.16987894641890083</v>
+      </c>
+      <c r="O13">
+        <v>3.0990013725652721E-3</v>
+      </c>
+      <c r="P13">
+        <v>-0.31701647687679163</v>
+      </c>
+      <c r="Q13">
+        <v>6.2672695958361675E-3</v>
+      </c>
+      <c r="R13">
+        <v>1.6193645585543953E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.9196267121869103E-4</v>
+      </c>
+      <c r="T13">
+        <v>-0.18415226068944188</v>
+      </c>
+      <c r="U13">
+        <v>3.4567998913015525E-3</v>
+      </c>
+      <c r="V13">
+        <v>-0.43565857408705516</v>
+      </c>
+      <c r="W13">
+        <v>8.1834474000114545E-3</v>
+      </c>
+      <c r="X13">
+        <v>-5.0174977858524247E-2</v>
+      </c>
+      <c r="Y13">
+        <v>1.0098283727378468E-3</v>
+      </c>
+      <c r="Z13">
+        <v>-5.2594591131485201E-2</v>
+      </c>
+      <c r="AA13">
+        <v>2.1848566518042041E-3</v>
+      </c>
+      <c r="AB13">
+        <v>-0.21490669299735998</v>
+      </c>
+      <c r="AC13">
+        <v>4.2906775545516786E-3</v>
+      </c>
+      <c r="AD13">
+        <v>-8.2219749492520353E-2</v>
+      </c>
+      <c r="AE13">
+        <v>1.4595852758245449E-3</v>
+      </c>
+      <c r="AF13">
+        <v>-0.12009822629983417</v>
+      </c>
+      <c r="AG13">
+        <v>2.3730627262589475E-3</v>
+      </c>
+      <c r="AH13">
+        <v>-9.4960329944743654E-2</v>
+      </c>
+      <c r="AI13">
+        <v>1.8215988812309391E-3</v>
+      </c>
+      <c r="AJ13">
+        <v>-0.256654180393667</v>
+      </c>
+      <c r="AK13">
+        <v>5.2113293846055529E-3</v>
+      </c>
+      <c r="AL13">
+        <v>7.6396054043931473E-3</v>
+      </c>
+      <c r="AM13">
+        <v>2.3199659650947879E-4</v>
+      </c>
+      <c r="AN13">
+        <v>-0.30364762856508737</v>
+      </c>
+      <c r="AO13">
+        <v>5.993249252881464E-3</v>
+      </c>
+      <c r="AP13">
+        <v>-0.28426775544180044</v>
+      </c>
+      <c r="AQ13">
+        <v>6.9451544979808313E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BACD6FB-EDB8-D74C-B22B-DCEEFEC9D61D}">
   <dimension ref="A1:W15"/>
   <sheetViews>

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EDE440-1117-A649-8D80-463C2A5B90E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDCA7F-B41F-E945-9C78-FCCF3A77ED08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" activeTab="7" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="179">
   <si>
     <t>RxnID</t>
   </si>
@@ -574,12 +574,15 @@
   <si>
     <t>lys</t>
   </si>
+  <si>
+    <t>Cysteine (new)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -606,6 +609,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -760,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -792,6 +802,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,8 +883,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20190630109183846"/>
-                  <c:y val="0.37795275590551181"/>
+                  <c:x val="0.17555244483328472"/>
+                  <c:y val="0.39760168136877627"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -947,34 +960,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.2268376169955992</c:v>
+                  <c:v>8.1936380674671998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5924991508404993</c:v>
+                  <c:v>8.5615796837048901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3494367380465508</c:v>
+                  <c:v>8.3187599558107692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.3635575274186</c:v>
+                  <c:v>15.2975715016991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0966406649177</c:v>
+                  <c:v>15.041362977482899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.173192515470101</c:v>
+                  <c:v>13.070452575687799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.338975646907599</c:v>
+                  <c:v>19.183044029360701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.880151246228799</c:v>
+                  <c:v>19.707331942218001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.486070183958699</c:v>
+                  <c:v>21.3147073256652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.4456935845629</c:v>
+                  <c:v>23.345480672561301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BD3-5748-B88B-7BE097CAD6E8}"/>
+              <c16:uniqueId val="{00000000-5FB2-FA48-9A5C-653C69AD843A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -994,11 +1007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="631259951"/>
-        <c:axId val="583870095"/>
+        <c:axId val="1604485823"/>
+        <c:axId val="1604487631"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="631259951"/>
+        <c:axId val="1604485823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,9 +1048,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>Specific growth rate (/h)</a:t>
                 </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1101,12 +1119,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583870095"/>
+        <c:crossAx val="1604487631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="583870095"/>
+        <c:axId val="1604487631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,18 +1161,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>ATP production rate</a:t>
                 </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>(mmol/gCDW/h)</a:t>
                 </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1218,7 +1246,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631259951"/>
+        <c:crossAx val="1604485823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1414,36 +1442,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>chemostat_data_1!$B$17:$J$17</c:f>
+              <c:f>chemostat_data_1!$B$33:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-6.4890000000000003E-2</c:v>
+                  <c:v>-2.0101866981057873E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.5369999999999998E-2</c:v>
+                  <c:v>-2.1781921910230668E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.3109999999999999E-2</c:v>
+                  <c:v>-2.1190378509441367E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1237</c:v>
+                  <c:v>-3.8452449520074233E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.1293</c:v>
+                  <c:v>-4.7458008376856438E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.12402000000000001</c:v>
+                  <c:v>-1.4056506811783429E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.20519999999999999</c:v>
+                  <c:v>-2.6260288301916429E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.21970999999999999</c:v>
+                  <c:v>-2.6706797322599975E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.24063999999999999</c:v>
+                  <c:v>-3.465442780435872E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,22 +2787,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBEB9D8-5C61-E54A-87B4-A6301D61CF2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA460E8-082D-B14B-ADBD-5BF9A4F07ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,14 +2829,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4194,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2152771E-AF90-2144-B614-18711C52EB3C}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5914,64 +5942,64 @@
       <c r="A17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="8">
-        <v>-6.4890000000000003E-2</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>-6.5369999999999998E-2</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>-6.3109999999999999E-2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>-0.1237</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>-0.1293</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>-0.12402000000000001</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>-0.20519999999999999</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
-        <v>-0.21970999999999999</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>-0.24063999999999999</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>-0.28398000000000001</v>
-      </c>
-      <c r="U17" s="9">
+      <c r="B17" s="27">
+        <v>-2.0101866981057873E-2</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>-2.1781921910230668E-2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>-2.1190378509441367E-2</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>-3.8452449520074233E-2</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
+        <v>-4.7458008376856438E-2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="27">
+        <v>-1.4056506811783429E-2</v>
+      </c>
+      <c r="M17" s="29">
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <v>-2.6260288301916429E-2</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="29">
+        <v>-2.6706797322599975E-2</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>0</v>
+      </c>
+      <c r="R17" s="27">
+        <v>-3.465442780435872E-2</v>
+      </c>
+      <c r="S17" s="28">
+        <v>0</v>
+      </c>
+      <c r="T17" s="27">
+        <v>-0.11027099199886925</v>
+      </c>
+      <c r="U17" s="28">
         <v>0</v>
       </c>
       <c r="V17" s="19">
@@ -8415,8 +8443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB7883E-74EE-8542-ABD0-BAB3E9121609}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10134,64 +10162,64 @@
       <c r="A17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="8">
-        <v>-6.4890000000000003E-2</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>-6.5369999999999998E-2</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>-6.3109999999999999E-2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>-0.1237</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>-0.1293</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>-0.12402000000000001</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>-0.20519999999999999</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
-        <v>-0.21970999999999999</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>-0.24063999999999999</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
-        <v>-0.28398000000000001</v>
-      </c>
-      <c r="U17" s="9">
+      <c r="B17" s="27">
+        <v>-2.0101866981057873E-2</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>-2.1781921910230668E-2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>-2.1190378509441367E-2</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>-3.8452449520074233E-2</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
+        <v>-4.7458008376856438E-2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="27">
+        <v>-1.4056506811783429E-2</v>
+      </c>
+      <c r="M17" s="29">
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <v>-2.6260288301916429E-2</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="29">
+        <v>-2.6706797322599975E-2</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>0</v>
+      </c>
+      <c r="R17" s="27">
+        <v>-3.465442780435872E-2</v>
+      </c>
+      <c r="S17" s="28">
+        <v>0</v>
+      </c>
+      <c r="T17" s="27">
+        <v>-0.11027099199886925</v>
+      </c>
+      <c r="U17" s="28">
         <v>0</v>
       </c>
       <c r="V17" s="19">
@@ -12634,8 +12662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFC2130-5140-4A4D-B92F-6E216F2DD16F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12653,7 +12681,7 @@
         <v>0.15</v>
       </c>
       <c r="B2">
-        <v>8.2268376169955992</v>
+        <v>8.1936380674671998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12661,7 +12689,7 @@
         <v>0.15</v>
       </c>
       <c r="B3">
-        <v>8.5924991508404993</v>
+        <v>8.5615796837048901</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12669,7 +12697,7 @@
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>8.3494367380465508</v>
+        <v>8.3187599558107692</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12677,7 +12705,7 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>15.3635575274186</v>
+        <v>15.2975715016991</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12685,7 +12713,7 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>15.0966406649177</v>
+        <v>15.041362977482899</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12693,7 +12721,7 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>13.173192515470101</v>
+        <v>13.070452575687799</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12701,7 +12729,7 @@
         <v>0.45</v>
       </c>
       <c r="B8">
-        <v>19.338975646907599</v>
+        <v>19.183044029360701</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12709,7 +12737,7 @@
         <v>0.5</v>
       </c>
       <c r="B9">
-        <v>19.880151246228799</v>
+        <v>19.707331942218001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12717,7 +12745,7 @@
         <v>0.5</v>
       </c>
       <c r="B10">
-        <v>21.486070183958699</v>
+        <v>21.3147073256652</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12725,7 +12753,7 @@
         <v>0.6</v>
       </c>
       <c r="B11">
-        <v>23.4456935845629</v>
+        <v>23.345480672561301</v>
       </c>
     </row>
   </sheetData>
@@ -12739,7 +12767,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12774,7 +12802,7 @@
         <v>117</v>
       </c>
       <c r="B4">
-        <v>-0.49009999999999998</v>
+        <v>-0.51359999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12782,7 +12810,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.12920000000000001</v>
+        <v>-0.13200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12790,7 +12818,7 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>-0.43580000000000002</v>
+        <v>-7.8799999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12798,7 +12826,7 @@
         <v>128</v>
       </c>
       <c r="B7" s="2">
-        <v>-8.3299999999999999E-2</v>
+        <v>-8.48E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12830,7 +12858,7 @@
         <v>134</v>
       </c>
       <c r="B11">
-        <v>-0.53520000000000001</v>
+        <v>-0.54100000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12838,7 +12866,7 @@
         <v>136</v>
       </c>
       <c r="B12">
-        <v>-0.63539999999999996</v>
+        <v>-0.65090000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12854,7 +12882,7 @@
         <v>138</v>
       </c>
       <c r="B14">
-        <v>-0.1593</v>
+        <v>-0.15010000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12862,7 +12890,7 @@
         <v>144</v>
       </c>
       <c r="B15">
-        <v>-0.16689999999999999</v>
+        <v>-0.1464</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12870,7 +12898,7 @@
         <v>147</v>
       </c>
       <c r="B16" s="2">
-        <v>-0.49259999999999998</v>
+        <v>-4.5895999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12910,7 +12938,7 @@
         <v>156</v>
       </c>
       <c r="B21">
-        <v>-0.45619999999999999</v>
+        <v>-0.42959999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -13707,10 +13735,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30311E4-68BA-2D4C-A676-3CF9B7C04A34}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15128,6 +15156,47 @@
       </c>
       <c r="N32" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>-2.0101866981057873E-2</v>
+      </c>
+      <c r="C33">
+        <v>-2.1781921910230668E-2</v>
+      </c>
+      <c r="D33">
+        <v>-2.1190378509441367E-2</v>
+      </c>
+      <c r="E33">
+        <v>-3.8452449520074233E-2</v>
+      </c>
+      <c r="F33">
+        <v>-4.7458008376856438E-2</v>
+      </c>
+      <c r="G33">
+        <v>-1.4056506811783429E-2</v>
+      </c>
+      <c r="H33">
+        <v>-2.6260288301916429E-2</v>
+      </c>
+      <c r="I33">
+        <v>-2.6706797322599975E-2</v>
+      </c>
+      <c r="J33">
+        <v>-3.465442780435872E-2</v>
+      </c>
+      <c r="K33">
+        <v>-0.11027099199886925</v>
+      </c>
+      <c r="L33">
+        <v>-3.3754457266198128E-2</v>
+      </c>
+      <c r="M33">
+        <v>-5.2594591131485201E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15144,8 +15213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9155A941-5177-8C4D-8B40-F5E1428A09EB}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDCA7F-B41F-E945-9C78-FCCF3A77ED08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72010ED3-64EC-F246-A20E-16200C90237C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -799,12 +799,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,7 +1172,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
@@ -1460,9 +1460,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-4.7458008376856438E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.4056506811783429E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-2.6260288301916429E-2</c:v>
@@ -4222,8 +4219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2152771E-AF90-2144-B614-18711C52EB3C}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5942,64 +5939,65 @@
       <c r="A17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>-2.0101866981057873E-2</v>
       </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
         <v>-2.1781921910230668E-2</v>
       </c>
-      <c r="E17" s="28">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
         <v>-2.1190378509441367E-2</v>
       </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <v>-3.8452449520074233E-2</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="27">
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <f>-0.0384524495200742*1.5</f>
+        <v>-5.7678674280111294E-2</v>
+      </c>
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
         <v>-4.7458008376856438E-2</v>
       </c>
-      <c r="K17" s="29">
-        <v>0</v>
-      </c>
-      <c r="L17" s="27">
+      <c r="K17" s="28">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
         <v>-1.4056506811783429E-2</v>
       </c>
-      <c r="M17" s="29">
-        <v>0</v>
-      </c>
-      <c r="N17" s="27">
+      <c r="M17" s="28">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
         <v>-2.6260288301916429E-2</v>
       </c>
-      <c r="O17" s="28">
-        <v>0</v>
-      </c>
-      <c r="P17" s="29">
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28">
         <v>-2.6706797322599975E-2</v>
       </c>
-      <c r="Q17" s="28">
-        <v>0</v>
-      </c>
-      <c r="R17" s="27">
+      <c r="Q17" s="27">
+        <v>0</v>
+      </c>
+      <c r="R17" s="26">
         <v>-3.465442780435872E-2</v>
       </c>
-      <c r="S17" s="28">
-        <v>0</v>
-      </c>
-      <c r="T17" s="27">
+      <c r="S17" s="27">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26">
         <v>-0.11027099199886925</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="27">
         <v>0</v>
       </c>
       <c r="V17" s="19">
@@ -10162,64 +10160,64 @@
       <c r="A17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>-2.0101866981057873E-2</v>
       </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
         <v>-2.1781921910230668E-2</v>
       </c>
-      <c r="E17" s="28">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
         <v>-2.1190378509441367E-2</v>
       </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
         <v>-3.8452449520074233E-2</v>
       </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="27">
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
         <v>-4.7458008376856438E-2</v>
       </c>
-      <c r="K17" s="29">
-        <v>0</v>
-      </c>
-      <c r="L17" s="27">
+      <c r="K17" s="28">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
         <v>-1.4056506811783429E-2</v>
       </c>
-      <c r="M17" s="29">
-        <v>0</v>
-      </c>
-      <c r="N17" s="27">
+      <c r="M17" s="28">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
         <v>-2.6260288301916429E-2</v>
       </c>
-      <c r="O17" s="28">
-        <v>0</v>
-      </c>
-      <c r="P17" s="29">
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28">
         <v>-2.6706797322599975E-2</v>
       </c>
-      <c r="Q17" s="28">
-        <v>0</v>
-      </c>
-      <c r="R17" s="27">
+      <c r="Q17" s="27">
+        <v>0</v>
+      </c>
+      <c r="R17" s="26">
         <v>-3.465442780435872E-2</v>
       </c>
-      <c r="S17" s="28">
-        <v>0</v>
-      </c>
-      <c r="T17" s="27">
+      <c r="S17" s="27">
+        <v>0</v>
+      </c>
+      <c r="T17" s="26">
         <v>-0.11027099199886925</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="27">
         <v>0</v>
       </c>
       <c r="V17" s="19">
@@ -12662,7 +12660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFC2130-5140-4A4D-B92F-6E216F2DD16F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -12767,7 +12765,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12818,7 +12816,7 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>-7.8799999999999995E-2</v>
+        <v>-8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12952,7 +12950,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13737,8 +13735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30311E4-68BA-2D4C-A676-3CF9B7C04A34}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15176,9 +15174,6 @@
       </c>
       <c r="F33">
         <v>-4.7458008376856438E-2</v>
-      </c>
-      <c r="G33">
-        <v>-1.4056506811783429E-2</v>
       </c>
       <c r="H33">
         <v>-2.6260288301916429E-2</v>
@@ -16944,20 +16939,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72010ED3-64EC-F246-A20E-16200C90237C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD5DAF-332A-B744-BA57-FB4B621789CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="-30660" yWindow="2480" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Exp_bounds" sheetId="8" r:id="rId2"/>
+    <sheet name="Exp_bounds" sheetId="15" r:id="rId2"/>
     <sheet name="Exp_bounds_GAM_NGAM" sheetId="13" r:id="rId3"/>
     <sheet name="GAM_NGAM" sheetId="12" r:id="rId4"/>
     <sheet name="AA_factors" sheetId="10" r:id="rId5"/>
@@ -4216,17 +4216,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2152771E-AF90-2144-B614-18711C52EB3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB763D9-E2BC-6648-8EBF-6CD797CFD531}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="21" width="10.83203125" customWidth="1"/>
     <col min="22" max="22" width="14.83203125" customWidth="1"/>
     <col min="23" max="23" width="14.33203125" customWidth="1"/>
     <col min="24" max="25" width="14.83203125" customWidth="1"/>
@@ -4337,60 +4336,60 @@
         <v>126</v>
       </c>
       <c r="B2" s="8">
-        <f>1*V2</f>
-        <v>-4.6704699999999999</v>
+        <f>1.05*V2</f>
+        <v>-4.9039935000000003</v>
       </c>
       <c r="C2" s="9">
-        <f>1*V2</f>
-        <v>-4.6704699999999999</v>
+        <f>0.95*V2</f>
+        <v>-4.4369464999999995</v>
       </c>
       <c r="D2" s="8">
-        <f>1*W2</f>
-        <v>-4.7056399999999998</v>
+        <f>1.05*W2</f>
+        <v>-4.9409219999999996</v>
       </c>
       <c r="E2" s="9">
-        <f>1*W2</f>
-        <v>-4.7056399999999998</v>
+        <f>0.95*W2</f>
+        <v>-4.4703580000000001</v>
       </c>
       <c r="F2" s="8">
-        <f>1*X2</f>
-        <v>-4.5427</v>
+        <f>1.05*X2</f>
+        <v>-4.7698350000000005</v>
       </c>
       <c r="G2" s="9">
-        <f>1*X2</f>
-        <v>-4.5427</v>
+        <f>0.95*X2</f>
+        <v>-4.3155649999999994</v>
       </c>
       <c r="H2" s="8">
-        <f>1*Y2</f>
-        <v>-8.9038400000000006</v>
+        <f>1.05*Y2</f>
+        <v>-9.3490320000000011</v>
       </c>
       <c r="I2" s="9">
-        <f>1*Y2</f>
-        <v>-8.9038400000000006</v>
+        <f>0.95*Y2</f>
+        <v>-8.4586480000000002</v>
       </c>
       <c r="J2" s="8">
-        <f>1*Z2</f>
-        <v>-9.3071400000000004</v>
+        <f>1.05*Z2</f>
+        <v>-9.7724970000000013</v>
       </c>
       <c r="K2" s="14">
-        <f>1*Z2</f>
-        <v>-9.3071400000000004</v>
+        <f>0.95*Z2</f>
+        <v>-8.8417829999999995</v>
       </c>
       <c r="L2" s="8">
-        <f>1*AA2</f>
-        <v>-8.9268000000000001</v>
+        <f>1.05*AA2</f>
+        <v>-9.3731400000000011</v>
       </c>
       <c r="M2" s="14">
-        <f>1*AA2</f>
-        <v>-8.9268000000000001</v>
+        <f>0.95*AA2</f>
+        <v>-8.480459999999999</v>
       </c>
       <c r="N2" s="8">
-        <f>1*AB2</f>
-        <v>-14.233000000000001</v>
+        <f>1.05*AB2</f>
+        <v>-14.944650000000001</v>
       </c>
       <c r="O2" s="9">
-        <f>1*AB2</f>
-        <v>-14.233000000000001</v>
+        <f>0.95*AB2</f>
+        <v>-13.52135</v>
       </c>
       <c r="P2" s="14">
         <f>1.05*AC2</f>
@@ -4452,60 +4451,60 @@
         <v>114</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" ref="B3:B10" si="0">1*V3</f>
-        <v>3.0634600000000001</v>
+        <f>0.95*V3</f>
+        <v>2.9102869999999998</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C10" si="1">1*V3</f>
-        <v>3.0634600000000001</v>
+        <f>1.05*V3</f>
+        <v>3.2166330000000003</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D10" si="2">1*W3</f>
-        <v>3.45187</v>
+        <f>0.95*W3</f>
+        <v>3.2792764999999999</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E10" si="3">1*W3</f>
-        <v>3.45187</v>
+        <f>1.05*W3</f>
+        <v>3.6244635000000001</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F8" si="4">1*X3</f>
-        <v>3.4927899999999998</v>
+        <f>0.95*X3</f>
+        <v>3.3181504999999998</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G8" si="5">1*X3</f>
-        <v>3.4927899999999998</v>
+        <f>1.05*X3</f>
+        <v>3.6674294999999999</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H10" si="6">1*Y3</f>
-        <v>6.0742000000000003</v>
+        <f>0.95*Y3</f>
+        <v>5.7704899999999997</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I10" si="7">1*Y3</f>
-        <v>6.0742000000000003</v>
+        <f>1.05*Y3</f>
+        <v>6.3779100000000009</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:J10" si="8">1*Z3</f>
-        <v>5.1837</v>
+        <f>0.95*Z3</f>
+        <v>4.9245149999999995</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K10" si="9">1*Z3</f>
-        <v>5.1837</v>
+        <f>1.05*Z3</f>
+        <v>5.4428850000000004</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L10" si="10">1*AA3</f>
-        <v>4.9675900000000004</v>
+        <f>0.95*AA3</f>
+        <v>4.7192105</v>
       </c>
       <c r="M3" s="14">
-        <f t="shared" ref="M3:M10" si="11">1*AA3</f>
-        <v>4.9675900000000004</v>
+        <f>1.05*AA3</f>
+        <v>5.2159695000000008</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N10" si="12">1*AB3</f>
-        <v>4.3114600000000003</v>
+        <f>0.95*AB3</f>
+        <v>4.0958870000000003</v>
       </c>
       <c r="O3" s="9">
-        <f t="shared" ref="O3:O10" si="13">1*AB3</f>
-        <v>4.3114600000000003</v>
+        <f>1.05*AB3</f>
+        <v>4.5270330000000003</v>
       </c>
       <c r="P3" s="14">
         <f>0.95*AC3</f>
@@ -4567,60 +4566,60 @@
         <v>119</v>
       </c>
       <c r="B4" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9482170717677879E-2</v>
+        <f t="shared" ref="B4:B10" si="0">0.95*V4</f>
+        <v>1.8508062181793985E-2</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9482170717677879E-2</v>
+        <f t="shared" ref="C4:C10" si="1">1.05*V4</f>
+        <v>2.0456279253561773E-2</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5729864035753103E-2</v>
+        <f t="shared" ref="D4:D8" si="2">0.95*W4</f>
+        <v>2.4443370833965448E-2</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" si="3"/>
-        <v>2.5729864035753103E-2</v>
+        <f t="shared" ref="E4:E8" si="3">1.05*W4</f>
+        <v>2.7016357237540759E-2</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="4"/>
-        <v>2.7262928480360573E-2</v>
+        <f t="shared" ref="F4:F8" si="4">0.95*X4</f>
+        <v>2.5899782056342545E-2</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="5"/>
-        <v>2.7262928480360573E-2</v>
+        <f t="shared" ref="G4:G8" si="5">1.05*X4</f>
+        <v>2.8626074904378601E-2</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" si="6"/>
-        <v>6.4593803906072528E-2</v>
+        <f t="shared" ref="H4:H10" si="6">0.95*Y4</f>
+        <v>6.13641137107689E-2</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" si="7"/>
-        <v>6.4593803906072528E-2</v>
+        <f t="shared" ref="I4:I10" si="7">1.05*Y4</f>
+        <v>6.7823494101376156E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="8"/>
-        <v>6.736570328122729E-2</v>
+        <f t="shared" ref="J4:J10" si="8">0.95*Z4</f>
+        <v>6.3997418117165916E-2</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" si="9"/>
-        <v>6.736570328122729E-2</v>
+        <f t="shared" ref="K4:K10" si="9">1.05*Z4</f>
+        <v>7.0733988445288665E-2</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="10"/>
-        <v>6.9812754280421052E-2</v>
+        <f t="shared" ref="L4:L10" si="10">0.95*AA4</f>
+        <v>6.6322116566399997E-2</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" si="11"/>
-        <v>6.9812754280421052E-2</v>
+        <f t="shared" ref="M4:M10" si="11">1.05*AA4</f>
+        <v>7.3303391994442108E-2</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="12"/>
-        <v>0.12889701078385629</v>
+        <f t="shared" ref="N4:N10" si="12">0.95*AB4</f>
+        <v>0.12245216024466347</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" si="13"/>
-        <v>0.12889701078385629</v>
+        <f t="shared" ref="O4:O10" si="13">1.05*AB4</f>
+        <v>0.13534186132304912</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" ref="P4:P10" si="14">0.95*AC4</f>
@@ -4683,59 +4682,59 @@
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
-        <v>3.0634600000000001</v>
+        <v>2.9102869999999998</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>3.0634600000000001</v>
+        <v>3.2166330000000003</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="2"/>
-        <v>3.45187</v>
+        <v>3.2792764999999999</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="3"/>
-        <v>3.45187</v>
+        <v>3.6244635000000001</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="4"/>
-        <v>3.4927899999999998</v>
+        <v>3.3181504999999998</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="5"/>
-        <v>3.4927899999999998</v>
+        <v>3.6674294999999999</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="6"/>
-        <v>6.0742000000000003</v>
+        <v>5.7704899999999997</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="7"/>
-        <v>6.0742000000000003</v>
+        <v>6.3779100000000009</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" si="8"/>
-        <v>5.1837</v>
+        <v>4.9245149999999995</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" si="9"/>
-        <v>5.1837</v>
+        <v>5.4428850000000004</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="10"/>
-        <v>4.9675900000000004</v>
+        <v>4.7192105</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" si="11"/>
-        <v>4.9675900000000004</v>
+        <v>5.2159695000000008</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="12"/>
-        <v>4.3114600000000003</v>
+        <v>4.0958870000000003</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="13"/>
-        <v>4.3114600000000003</v>
+        <v>4.5270330000000003</v>
       </c>
       <c r="P5" s="14">
         <f t="shared" si="14"/>
@@ -4798,59 +4797,59 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>6.4376199999999999</v>
+        <v>6.1157389999999996</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>6.4376199999999999</v>
+        <v>6.7595010000000002</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="2"/>
-        <v>7.0537200000000002</v>
+        <v>6.7010339999999999</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="3"/>
-        <v>7.0537200000000002</v>
+        <v>7.4064060000000005</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="4"/>
-        <v>7.1179199999999998</v>
+        <v>6.7620239999999994</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="5"/>
-        <v>7.1179199999999998</v>
+        <v>7.4738160000000002</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="6"/>
-        <v>12.698589999999999</v>
+        <v>12.063660499999999</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="7"/>
-        <v>12.698589999999999</v>
+        <v>13.3335195</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="8"/>
-        <v>11.162380000000001</v>
+        <v>10.604260999999999</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="9"/>
-        <v>11.162380000000001</v>
+        <v>11.720499000000002</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="10"/>
-        <v>10.379429999999999</v>
+        <v>9.8604584999999982</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" si="11"/>
-        <v>10.379429999999999</v>
+        <v>10.8984015</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="12"/>
-        <v>8.8881499999999996</v>
+        <v>8.443742499999999</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="13"/>
-        <v>8.8881499999999996</v>
+        <v>9.3325575000000001</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="14"/>
@@ -4913,59 +4912,59 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
-        <v>1.23291</v>
+        <v>1.1712644999999999</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>1.23291</v>
+        <v>1.2945555</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="2"/>
-        <v>0.86414000000000002</v>
+        <v>0.82093300000000002</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="3"/>
-        <v>0.86414000000000002</v>
+        <v>0.90734700000000001</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>0.72792000000000001</v>
+        <v>0.69152400000000003</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="5"/>
-        <v>0.72792000000000001</v>
+        <v>0.764316</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="6"/>
-        <v>2.2959399999999999</v>
+        <v>2.1811429999999996</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="7"/>
-        <v>2.2959399999999999</v>
+        <v>2.4107370000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="8"/>
-        <v>3.83175</v>
+        <v>3.6401624999999997</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="9"/>
-        <v>3.83175</v>
+        <v>4.0233375000000002</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="10"/>
-        <v>3.4832399999999999</v>
+        <v>3.309078</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="11"/>
-        <v>3.4832399999999999</v>
+        <v>3.6574019999999998</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="12"/>
-        <v>15.397539999999999</v>
+        <v>14.627662999999998</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="13"/>
-        <v>15.397539999999999</v>
+        <v>16.167417</v>
       </c>
       <c r="P7" s="14">
         <f t="shared" si="14"/>
@@ -5028,59 +5027,59 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
-        <v>0.21566181769496032</v>
+        <v>0.2048787268102123</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="1"/>
-        <v>0.21566181769496032</v>
+        <v>0.22644490857970834</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="2"/>
-        <v>0.22146506896243123</v>
+        <v>0.21039181551430966</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="3"/>
-        <v>0.22146506896243123</v>
+        <v>0.23253832241055281</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="4"/>
-        <v>0.20969334832645756</v>
+        <v>0.19920868091013466</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="5"/>
-        <v>0.20969334832645756</v>
+        <v>0.22017801574278045</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="6"/>
-        <v>0.4082560937242718</v>
+        <v>0.3878432890380582</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="7"/>
-        <v>0.4082560937242718</v>
+        <v>0.42866889841048539</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="8"/>
-        <v>0.39487054992058451</v>
+        <v>0.37512702242455526</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="9"/>
-        <v>0.39487054992058451</v>
+        <v>0.41461407741661377</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="10"/>
-        <v>0.3785554908847758</v>
+        <v>0.35962771634053697</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="11"/>
-        <v>0.3785554908847758</v>
+        <v>0.39748326542901463</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="12"/>
-        <v>0.61004428128870769</v>
+        <v>0.57954206722427226</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="13"/>
-        <v>0.61004428128870769</v>
+        <v>0.64054649535314312</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" si="14"/>
@@ -5143,57 +5142,59 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>3.6999999999999999E-4</v>
+        <v>3.5149999999999998E-4</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="1"/>
-        <v>3.6999999999999999E-4</v>
+        <v>3.8850000000000001E-4</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D9:D10" si="20">0.95*W9</f>
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E9:E10" si="21">1.05*W9</f>
         <v>0</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" ref="F9:F10" si="22">0.95*X9</f>
         <v>0</v>
       </c>
       <c r="G9" s="9">
+        <f t="shared" ref="G9:G10" si="23">1.05*X9</f>
         <v>0</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="6"/>
-        <v>3.1699999999999999E-2</v>
+        <v>3.0114999999999996E-2</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="7"/>
-        <v>3.1699999999999999E-2</v>
+        <v>3.3285000000000002E-2</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="8"/>
-        <v>5.6959999999999997E-2</v>
+        <v>5.4111999999999993E-2</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="9"/>
-        <v>5.6959999999999997E-2</v>
+        <v>5.9808E-2</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="10"/>
-        <v>5.3560000000000003E-2</v>
+        <v>5.0882000000000004E-2</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="11"/>
-        <v>5.3560000000000003E-2</v>
+        <v>5.6238000000000003E-2</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="12"/>
-        <v>5.8639999999999998E-2</v>
+        <v>5.5707999999999994E-2</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="13"/>
-        <v>5.8639999999999998E-2</v>
+        <v>6.1572000000000002E-2</v>
       </c>
       <c r="P9" s="14">
         <f t="shared" si="14"/>
@@ -5256,59 +5257,59 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
-        <v>7.8090000000000007E-2</v>
+        <v>7.4185500000000001E-2</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="1"/>
-        <v>7.8090000000000007E-2</v>
+        <v>8.1994500000000012E-2</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="2"/>
-        <v>9.4869999999999996E-2</v>
+        <f t="shared" si="20"/>
+        <v>9.0126499999999998E-2</v>
       </c>
       <c r="E10" s="9">
-        <f t="shared" si="3"/>
-        <v>9.4869999999999996E-2</v>
+        <f t="shared" si="21"/>
+        <v>9.9613499999999994E-2</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10" si="20">1*X10</f>
-        <v>7.2859999999999994E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.9216999999999987E-2</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ref="G10" si="21">1*X10</f>
-        <v>7.2859999999999994E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.6503000000000002E-2</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="6"/>
-        <v>0.15457000000000001</v>
+        <v>0.14684150000000001</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="7"/>
-        <v>0.15457000000000001</v>
+        <v>0.16229850000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="8"/>
-        <v>0.15748000000000001</v>
+        <v>0.14960599999999999</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="9"/>
-        <v>0.15748000000000001</v>
+        <v>0.16535400000000003</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="10"/>
-        <v>0.14710999999999999</v>
+        <v>0.13975449999999998</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="11"/>
-        <v>0.14710999999999999</v>
+        <v>0.15446550000000001</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="12"/>
-        <v>0.22602</v>
+        <v>0.21471899999999999</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="13"/>
-        <v>0.22602</v>
+        <v>0.237321</v>
       </c>
       <c r="P10" s="14">
         <f t="shared" si="14"/>
@@ -8433,7 +8434,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8441,8 +8441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB7883E-74EE-8542-ABD0-BAB3E9121609}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17:AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12765,7 +12765,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12949,7 +12949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEE335C-B48E-0A43-8EA2-B39F9779B021}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -13735,8 +13735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30311E4-68BA-2D4C-A676-3CF9B7C04A34}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD5DAF-332A-B744-BA57-FB4B621789CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF7893-0C10-DA49-9D51-99320AD3D3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30660" yWindow="2480" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="-34280" yWindow="3600" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -4220,7 +4220,7 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="H3" sqref="H3:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4336,28 +4336,28 @@
         <v>126</v>
       </c>
       <c r="B2" s="8">
-        <f>1.05*V2</f>
-        <v>-4.9039935000000003</v>
+        <f>1*V2</f>
+        <v>-4.6704699999999999</v>
       </c>
       <c r="C2" s="9">
-        <f>0.95*V2</f>
-        <v>-4.4369464999999995</v>
+        <f>1*V2</f>
+        <v>-4.6704699999999999</v>
       </c>
       <c r="D2" s="8">
-        <f>1.05*W2</f>
-        <v>-4.9409219999999996</v>
+        <f>1*W2</f>
+        <v>-4.7056399999999998</v>
       </c>
       <c r="E2" s="9">
-        <f>0.95*W2</f>
-        <v>-4.4703580000000001</v>
+        <f>1*W2</f>
+        <v>-4.7056399999999998</v>
       </c>
       <c r="F2" s="8">
-        <f>1.05*X2</f>
-        <v>-4.7698350000000005</v>
+        <f>1*X2</f>
+        <v>-4.5427</v>
       </c>
       <c r="G2" s="9">
-        <f>0.95*X2</f>
-        <v>-4.3155649999999994</v>
+        <f>1*X2</f>
+        <v>-4.5427</v>
       </c>
       <c r="H2" s="8">
         <f>1.05*Y2</f>
@@ -4384,36 +4384,36 @@
         <v>-8.480459999999999</v>
       </c>
       <c r="N2" s="8">
-        <f>1.05*AB2</f>
-        <v>-14.944650000000001</v>
+        <f>1*AB2</f>
+        <v>-14.233000000000001</v>
       </c>
       <c r="O2" s="9">
-        <f>0.95*AB2</f>
-        <v>-13.52135</v>
+        <f>1*AB2</f>
+        <v>-14.233000000000001</v>
       </c>
       <c r="P2" s="14">
-        <f>1.05*AC2</f>
-        <v>-17.231949000000004</v>
+        <f>1*AC2</f>
+        <v>-16.411380000000001</v>
       </c>
       <c r="Q2" s="9">
-        <f>0.95*AC2</f>
-        <v>-15.590811</v>
+        <f>1*AC2</f>
+        <v>-16.411380000000001</v>
       </c>
       <c r="R2" s="8">
-        <f>1.05*AD2</f>
-        <v>-18.187071000000003</v>
+        <f>1*AD2</f>
+        <v>-17.321020000000001</v>
       </c>
       <c r="S2" s="9">
-        <f>0.95*AD2</f>
-        <v>-16.454968999999998</v>
+        <f>1*AD2</f>
+        <v>-17.321020000000001</v>
       </c>
       <c r="T2" s="8">
-        <f>AE2*1.15</f>
-        <v>-23.505838999999998</v>
+        <f>AE2*1.1</f>
+        <v>-22.483846</v>
       </c>
       <c r="U2" s="9">
-        <f>AE2*0.85</f>
-        <v>-17.373881000000001</v>
+        <f>AE2*0.9</f>
+        <v>-18.395873999999999</v>
       </c>
       <c r="V2" s="19">
         <v>-4.6704699999999999</v>
@@ -4451,28 +4451,28 @@
         <v>114</v>
       </c>
       <c r="B3" s="8">
-        <f>0.95*V3</f>
-        <v>2.9102869999999998</v>
+        <f t="shared" ref="B3:B10" si="0">1*V3</f>
+        <v>3.0634600000000001</v>
       </c>
       <c r="C3" s="9">
-        <f>1.05*V3</f>
-        <v>3.2166330000000003</v>
+        <f t="shared" ref="C3:C10" si="1">1*V3</f>
+        <v>3.0634600000000001</v>
       </c>
       <c r="D3" s="8">
-        <f>0.95*W3</f>
-        <v>3.2792764999999999</v>
+        <f t="shared" ref="D3:D10" si="2">1*W3</f>
+        <v>3.45187</v>
       </c>
       <c r="E3" s="9">
-        <f>1.05*W3</f>
-        <v>3.6244635000000001</v>
+        <f t="shared" ref="E3:E10" si="3">1*W3</f>
+        <v>3.45187</v>
       </c>
       <c r="F3" s="8">
-        <f>0.95*X3</f>
-        <v>3.3181504999999998</v>
+        <f t="shared" ref="F3:F10" si="4">1*X3</f>
+        <v>3.4927899999999998</v>
       </c>
       <c r="G3" s="9">
-        <f>1.05*X3</f>
-        <v>3.6674294999999999</v>
+        <f t="shared" ref="G3:G10" si="5">1*X3</f>
+        <v>3.4927899999999998</v>
       </c>
       <c r="H3" s="8">
         <f>0.95*Y3</f>
@@ -4499,36 +4499,36 @@
         <v>5.2159695000000008</v>
       </c>
       <c r="N3" s="8">
-        <f>0.95*AB3</f>
-        <v>4.0958870000000003</v>
+        <f t="shared" ref="N3:N10" si="6">1*AB3</f>
+        <v>4.3114600000000003</v>
       </c>
       <c r="O3" s="9">
-        <f>1.05*AB3</f>
-        <v>4.5270330000000003</v>
+        <f t="shared" ref="O3:O10" si="7">1*AB3</f>
+        <v>4.3114600000000003</v>
       </c>
       <c r="P3" s="14">
-        <f>0.95*AC3</f>
-        <v>2.5116765000000001</v>
+        <f t="shared" ref="P3:P10" si="8">1*AC3</f>
+        <v>2.6438700000000002</v>
       </c>
       <c r="Q3" s="9">
-        <f>1.05*AC3</f>
-        <v>2.7760635000000002</v>
+        <f t="shared" ref="Q3:Q10" si="9">1*AC3</f>
+        <v>2.6438700000000002</v>
       </c>
       <c r="R3" s="8">
-        <f>0.95*AD3</f>
-        <v>2.2428075000000001</v>
+        <f t="shared" ref="R3:R10" si="10">1*AD3</f>
+        <v>2.3608500000000001</v>
       </c>
       <c r="S3" s="9">
-        <f>1.05*AD3</f>
-        <v>2.4788925000000002</v>
+        <f t="shared" ref="S3:S10" si="11">1*AD3</f>
+        <v>2.3608500000000001</v>
       </c>
       <c r="T3" s="8">
-        <f>AE3*0.85</f>
-        <v>0.64737699999999998</v>
+        <f>AE3*0.9</f>
+        <v>0.68545800000000001</v>
       </c>
       <c r="U3" s="9">
-        <f>AE3*1.15</f>
-        <v>0.87586299999999984</v>
+        <f>AE3*1.1</f>
+        <v>0.83778200000000003</v>
       </c>
       <c r="V3" s="19">
         <v>3.0634600000000001</v>
@@ -4566,84 +4566,84 @@
         <v>119</v>
       </c>
       <c r="B4" s="8">
-        <f t="shared" ref="B4:B10" si="0">0.95*V4</f>
-        <v>1.8508062181793985E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9482170717677879E-2</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" ref="C4:C10" si="1">1.05*V4</f>
-        <v>2.0456279253561773E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9482170717677879E-2</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D8" si="2">0.95*W4</f>
-        <v>2.4443370833965448E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5729864035753103E-2</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" ref="E4:E8" si="3">1.05*W4</f>
-        <v>2.7016357237540759E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.5729864035753103E-2</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F8" si="4">0.95*X4</f>
-        <v>2.5899782056342545E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.7262928480360573E-2</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ref="G4:G8" si="5">1.05*X4</f>
-        <v>2.8626074904378601E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7262928480360573E-2</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H10" si="6">0.95*Y4</f>
+        <f t="shared" ref="H4:H10" si="12">0.95*Y4</f>
         <v>6.13641137107689E-2</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I10" si="7">1.05*Y4</f>
+        <f t="shared" ref="I4:I10" si="13">1.05*Y4</f>
         <v>6.7823494101376156E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J10" si="8">0.95*Z4</f>
+        <f t="shared" ref="J4:J10" si="14">0.95*Z4</f>
         <v>6.3997418117165916E-2</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ref="K4:K10" si="9">1.05*Z4</f>
+        <f t="shared" ref="K4:K10" si="15">1.05*Z4</f>
         <v>7.0733988445288665E-2</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L10" si="10">0.95*AA4</f>
+        <f t="shared" ref="L4:L10" si="16">0.95*AA4</f>
         <v>6.6322116566399997E-2</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" ref="M4:M10" si="11">1.05*AA4</f>
+        <f t="shared" ref="M4:M10" si="17">1.05*AA4</f>
         <v>7.3303391994442108E-2</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" ref="N4:N10" si="12">0.95*AB4</f>
-        <v>0.12245216024466347</v>
+        <f t="shared" si="6"/>
+        <v>0.12889701078385629</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4:O10" si="13">1.05*AB4</f>
-        <v>0.13534186132304912</v>
+        <f t="shared" si="7"/>
+        <v>0.12889701078385629</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" ref="P4:P10" si="14">0.95*AC4</f>
-        <v>0.13514965773576576</v>
+        <f t="shared" si="8"/>
+        <v>0.14226279761659555</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Q10" si="15">1.05*AC4</f>
-        <v>0.14937593749742534</v>
+        <f t="shared" si="9"/>
+        <v>0.14226279761659555</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" ref="R4:R10" si="16">0.95*AD4</f>
-        <v>0.13805610029468926</v>
+        <f t="shared" si="10"/>
+        <v>0.14532221083651503</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" ref="S4:S10" si="17">1.05*AD4</f>
-        <v>0.1525883213783408</v>
+        <f t="shared" si="11"/>
+        <v>0.14532221083651503</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" ref="T4:T10" si="18">AE4*0.85</f>
-        <v>2.5514075783853347E-2</v>
+        <f t="shared" ref="T4:T10" si="18">AE4*0.9</f>
+        <v>2.701490377113884E-2</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:U10" si="19">AE4*1.15</f>
-        <v>3.451904370756629E-2</v>
+        <f t="shared" ref="U4:U10" si="19">AE4*1.1</f>
+        <v>3.3018215720280804E-2</v>
       </c>
       <c r="V4" s="19">
         <v>1.9482170717677879E-2</v>
@@ -4682,83 +4682,83 @@
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
-        <v>2.9102869999999998</v>
+        <v>3.0634600000000001</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>3.2166330000000003</v>
+        <v>3.0634600000000001</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="2"/>
-        <v>3.2792764999999999</v>
+        <v>3.45187</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="3"/>
-        <v>3.6244635000000001</v>
+        <v>3.45187</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="4"/>
-        <v>3.3181504999999998</v>
+        <v>3.4927899999999998</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="5"/>
-        <v>3.6674294999999999</v>
+        <v>3.4927899999999998</v>
       </c>
       <c r="H5" s="8">
+        <f t="shared" si="12"/>
+        <v>5.7704899999999997</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="13"/>
+        <v>6.3779100000000009</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="14"/>
+        <v>4.9245149999999995</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="15"/>
+        <v>5.4428850000000004</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="16"/>
+        <v>4.7192105</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="17"/>
+        <v>5.2159695000000008</v>
+      </c>
+      <c r="N5" s="8">
         <f t="shared" si="6"/>
-        <v>5.7704899999999997</v>
-      </c>
-      <c r="I5" s="9">
+        <v>4.3114600000000003</v>
+      </c>
+      <c r="O5" s="9">
         <f t="shared" si="7"/>
-        <v>6.3779100000000009</v>
-      </c>
-      <c r="J5" s="8">
+        <v>4.3114600000000003</v>
+      </c>
+      <c r="P5" s="14">
         <f t="shared" si="8"/>
-        <v>4.9245149999999995</v>
-      </c>
-      <c r="K5" s="14">
+        <v>2.6438700000000002</v>
+      </c>
+      <c r="Q5" s="9">
         <f t="shared" si="9"/>
-        <v>5.4428850000000004</v>
-      </c>
-      <c r="L5" s="8">
+        <v>2.6438700000000002</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" si="10"/>
-        <v>4.7192105</v>
-      </c>
-      <c r="M5" s="14">
+        <v>2.3608500000000001</v>
+      </c>
+      <c r="S5" s="9">
         <f t="shared" si="11"/>
-        <v>5.2159695000000008</v>
-      </c>
-      <c r="N5" s="8">
-        <f t="shared" si="12"/>
-        <v>4.0958870000000003</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="13"/>
-        <v>4.5270330000000003</v>
-      </c>
-      <c r="P5" s="14">
-        <f t="shared" si="14"/>
-        <v>2.5116765000000001</v>
-      </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="15"/>
-        <v>2.7760635000000002</v>
-      </c>
-      <c r="R5" s="8">
-        <f t="shared" si="16"/>
-        <v>2.2428075000000001</v>
-      </c>
-      <c r="S5" s="9">
-        <f t="shared" si="17"/>
-        <v>2.4788925000000002</v>
+        <v>2.3608500000000001</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" si="18"/>
-        <v>0.64737699999999998</v>
+        <v>0.68545800000000001</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="19"/>
-        <v>0.87586299999999984</v>
+        <v>0.83778200000000003</v>
       </c>
       <c r="V5" s="19">
         <v>3.0634600000000001</v>
@@ -4797,83 +4797,83 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>6.1157389999999996</v>
+        <v>6.4376199999999999</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
-        <v>6.7595010000000002</v>
+        <v>6.4376199999999999</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="2"/>
-        <v>6.7010339999999999</v>
+        <v>7.0537200000000002</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="3"/>
-        <v>7.4064060000000005</v>
+        <v>7.0537200000000002</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="4"/>
-        <v>6.7620239999999994</v>
+        <v>7.1179199999999998</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="5"/>
-        <v>7.4738160000000002</v>
+        <v>7.1179199999999998</v>
       </c>
       <c r="H6" s="8">
+        <f t="shared" si="12"/>
+        <v>12.063660499999999</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="13"/>
+        <v>13.3335195</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="14"/>
+        <v>10.604260999999999</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="15"/>
+        <v>11.720499000000002</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="16"/>
+        <v>9.8604584999999982</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="17"/>
+        <v>10.8984015</v>
+      </c>
+      <c r="N6" s="8">
         <f t="shared" si="6"/>
-        <v>12.063660499999999</v>
-      </c>
-      <c r="I6" s="9">
+        <v>8.8881499999999996</v>
+      </c>
+      <c r="O6" s="9">
         <f t="shared" si="7"/>
-        <v>13.3335195</v>
-      </c>
-      <c r="J6" s="8">
+        <v>8.8881499999999996</v>
+      </c>
+      <c r="P6" s="14">
         <f t="shared" si="8"/>
-        <v>10.604260999999999</v>
-      </c>
-      <c r="K6" s="14">
+        <v>5.2999599999999996</v>
+      </c>
+      <c r="Q6" s="9">
         <f t="shared" si="9"/>
-        <v>11.720499000000002</v>
-      </c>
-      <c r="L6" s="8">
+        <v>5.2999599999999996</v>
+      </c>
+      <c r="R6" s="8">
         <f t="shared" si="10"/>
-        <v>9.8604584999999982</v>
-      </c>
-      <c r="M6" s="14">
+        <v>4.6127599999999997</v>
+      </c>
+      <c r="S6" s="9">
         <f t="shared" si="11"/>
-        <v>10.8984015</v>
-      </c>
-      <c r="N6" s="8">
-        <f t="shared" si="12"/>
-        <v>8.443742499999999</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="13"/>
-        <v>9.3325575000000001</v>
-      </c>
-      <c r="P6" s="14">
-        <f t="shared" si="14"/>
-        <v>5.0349619999999993</v>
-      </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="15"/>
-        <v>5.5649579999999998</v>
-      </c>
-      <c r="R6" s="8">
-        <f t="shared" si="16"/>
-        <v>4.3821219999999999</v>
-      </c>
-      <c r="S6" s="9">
-        <f t="shared" si="17"/>
-        <v>4.8433979999999996</v>
+        <v>4.6127599999999997</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="18"/>
-        <v>1.1176649999999999</v>
+        <v>1.1834100000000001</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="19"/>
-        <v>1.5121349999999998</v>
+        <v>1.4463900000000001</v>
       </c>
       <c r="V6" s="19">
         <v>6.4376199999999999</v>
@@ -4912,83 +4912,83 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
-        <v>1.1712644999999999</v>
+        <v>1.23291</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>1.2945555</v>
+        <v>1.23291</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="2"/>
-        <v>0.82093300000000002</v>
+        <v>0.86414000000000002</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="3"/>
-        <v>0.90734700000000001</v>
+        <v>0.86414000000000002</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>0.69152400000000003</v>
+        <v>0.72792000000000001</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="5"/>
-        <v>0.764316</v>
+        <v>0.72792000000000001</v>
       </c>
       <c r="H7" s="8">
+        <f t="shared" si="12"/>
+        <v>2.1811429999999996</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="13"/>
+        <v>2.4107370000000001</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="14"/>
+        <v>3.6401624999999997</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="15"/>
+        <v>4.0233375000000002</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="16"/>
+        <v>3.309078</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="17"/>
+        <v>3.6574019999999998</v>
+      </c>
+      <c r="N7" s="8">
         <f t="shared" si="6"/>
-        <v>2.1811429999999996</v>
-      </c>
-      <c r="I7" s="9">
+        <v>15.397539999999999</v>
+      </c>
+      <c r="O7" s="9">
         <f t="shared" si="7"/>
-        <v>2.4107370000000001</v>
-      </c>
-      <c r="J7" s="8">
+        <v>15.397539999999999</v>
+      </c>
+      <c r="P7" s="14">
         <f t="shared" si="8"/>
-        <v>3.6401624999999997</v>
-      </c>
-      <c r="K7" s="14">
+        <v>21.88917</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="9"/>
-        <v>4.0233375000000002</v>
-      </c>
-      <c r="L7" s="8">
+        <v>21.88917</v>
+      </c>
+      <c r="R7" s="8">
         <f t="shared" si="10"/>
-        <v>3.309078</v>
-      </c>
-      <c r="M7" s="14">
+        <v>22.370090000000001</v>
+      </c>
+      <c r="S7" s="9">
         <f t="shared" si="11"/>
-        <v>3.6574019999999998</v>
-      </c>
-      <c r="N7" s="8">
-        <f t="shared" si="12"/>
-        <v>14.627662999999998</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="13"/>
-        <v>16.167417</v>
-      </c>
-      <c r="P7" s="14">
-        <f t="shared" si="14"/>
-        <v>20.794711499999998</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="15"/>
-        <v>22.983628500000002</v>
-      </c>
-      <c r="R7" s="8">
-        <f t="shared" si="16"/>
-        <v>21.251585500000001</v>
-      </c>
-      <c r="S7" s="9">
-        <f t="shared" si="17"/>
-        <v>23.488594500000001</v>
+        <v>22.370090000000001</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="18"/>
-        <v>23.6640935</v>
+        <v>25.056099</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="19"/>
-        <v>32.016126499999999</v>
+        <v>30.624121000000002</v>
       </c>
       <c r="V7" s="19">
         <v>1.23291</v>
@@ -5027,83 +5027,83 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
-        <v>0.2048787268102123</v>
+        <v>0.21566181769496032</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="1"/>
-        <v>0.22644490857970834</v>
+        <v>0.21566181769496032</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="2"/>
-        <v>0.21039181551430966</v>
+        <v>0.22146506896243123</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="3"/>
-        <v>0.23253832241055281</v>
+        <v>0.22146506896243123</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="4"/>
-        <v>0.19920868091013466</v>
+        <v>0.20969334832645756</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="5"/>
-        <v>0.22017801574278045</v>
+        <v>0.20969334832645756</v>
       </c>
       <c r="H8" s="8">
+        <f t="shared" si="12"/>
+        <v>0.3878432890380582</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="13"/>
+        <v>0.42866889841048539</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="14"/>
+        <v>0.37512702242455526</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="15"/>
+        <v>0.41461407741661377</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="16"/>
+        <v>0.35962771634053697</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="17"/>
+        <v>0.39748326542901463</v>
+      </c>
+      <c r="N8" s="8">
         <f t="shared" si="6"/>
-        <v>0.3878432890380582</v>
-      </c>
-      <c r="I8" s="9">
+        <v>0.61004428128870769</v>
+      </c>
+      <c r="O8" s="9">
         <f t="shared" si="7"/>
-        <v>0.42866889841048539</v>
-      </c>
-      <c r="J8" s="8">
+        <v>0.61004428128870769</v>
+      </c>
+      <c r="P8" s="14">
         <f t="shared" si="8"/>
-        <v>0.37512702242455526</v>
-      </c>
-      <c r="K8" s="14">
+        <v>0.6195883909222919</v>
+      </c>
+      <c r="Q8" s="9">
         <f t="shared" si="9"/>
-        <v>0.41461407741661377</v>
-      </c>
-      <c r="L8" s="8">
+        <v>0.6195883909222919</v>
+      </c>
+      <c r="R8" s="8">
         <f t="shared" si="10"/>
-        <v>0.35962771634053697</v>
-      </c>
-      <c r="M8" s="14">
+        <v>0.61865417204417505</v>
+      </c>
+      <c r="S8" s="9">
         <f t="shared" si="11"/>
-        <v>0.39748326542901463</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" si="12"/>
-        <v>0.57954206722427226</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="13"/>
-        <v>0.64054649535314312</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="14"/>
-        <v>0.58860897137617729</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="15"/>
-        <v>0.6505678104684065</v>
-      </c>
-      <c r="R8" s="8">
-        <f t="shared" si="16"/>
-        <v>0.5877214634419663</v>
-      </c>
-      <c r="S8" s="9">
-        <f t="shared" si="17"/>
-        <v>0.64958688064638381</v>
+        <v>0.61865417204417505</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="18"/>
-        <v>2.7185998974416602E-2</v>
+        <v>2.8785175384676405E-2</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="19"/>
-        <v>3.6781057435975401E-2</v>
+        <v>3.5181881025715608E-2</v>
       </c>
       <c r="V8" s="19">
         <v>0.21566181769496032</v>
@@ -5142,83 +5142,83 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>3.5149999999999998E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="1"/>
-        <v>3.8850000000000001E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" ref="D9:D10" si="20">0.95*W9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" ref="E9:E10" si="21">1.05*W9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:F10" si="22">0.95*X9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ref="G9:G10" si="23">1.05*X9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H9" s="8">
+        <f t="shared" si="12"/>
+        <v>3.0114999999999996E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="13"/>
+        <v>3.3285000000000002E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="14"/>
+        <v>5.4111999999999993E-2</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="15"/>
+        <v>5.9808E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="16"/>
+        <v>5.0882000000000004E-2</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="17"/>
+        <v>5.6238000000000003E-2</v>
+      </c>
+      <c r="N9" s="8">
         <f t="shared" si="6"/>
-        <v>3.0114999999999996E-2</v>
-      </c>
-      <c r="I9" s="9">
+        <v>5.8639999999999998E-2</v>
+      </c>
+      <c r="O9" s="9">
         <f t="shared" si="7"/>
-        <v>3.3285000000000002E-2</v>
-      </c>
-      <c r="J9" s="8">
+        <v>5.8639999999999998E-2</v>
+      </c>
+      <c r="P9" s="14">
         <f t="shared" si="8"/>
-        <v>5.4111999999999993E-2</v>
-      </c>
-      <c r="K9" s="14">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="9"/>
-        <v>5.9808E-2</v>
-      </c>
-      <c r="L9" s="8">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="R9" s="8">
         <f t="shared" si="10"/>
-        <v>5.0882000000000004E-2</v>
-      </c>
-      <c r="M9" s="14">
+        <v>4.7809999999999998E-2</v>
+      </c>
+      <c r="S9" s="9">
         <f t="shared" si="11"/>
-        <v>5.6238000000000003E-2</v>
-      </c>
-      <c r="N9" s="8">
-        <f t="shared" si="12"/>
-        <v>5.5707999999999994E-2</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="13"/>
-        <v>6.1572000000000002E-2</v>
-      </c>
-      <c r="P9" s="14">
-        <f t="shared" si="14"/>
-        <v>3.1159999999999998E-3</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="15"/>
-        <v>3.444E-3</v>
-      </c>
-      <c r="R9" s="8">
-        <f t="shared" si="16"/>
-        <v>4.5419499999999995E-2</v>
-      </c>
-      <c r="S9" s="9">
-        <f t="shared" si="17"/>
-        <v>5.0200500000000002E-2</v>
+        <v>4.7809999999999998E-2</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="18"/>
-        <v>7.4366500000000002E-2</v>
+        <v>7.8741000000000005E-2</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="19"/>
-        <v>0.10061349999999999</v>
+        <v>9.6239000000000005E-2</v>
       </c>
       <c r="V9" s="19">
         <v>3.6999999999999999E-4</v>
@@ -5257,83 +5257,83 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
-        <v>7.4185500000000001E-2</v>
+        <v>7.8090000000000007E-2</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="1"/>
-        <v>8.1994500000000012E-2</v>
+        <v>7.8090000000000007E-2</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="20"/>
-        <v>9.0126499999999998E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.4869999999999996E-2</v>
       </c>
       <c r="E10" s="9">
-        <f t="shared" si="21"/>
-        <v>9.9613499999999994E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.4869999999999996E-2</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="22"/>
-        <v>6.9216999999999987E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.2859999999999994E-2</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="23"/>
-        <v>7.6503000000000002E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.2859999999999994E-2</v>
       </c>
       <c r="H10" s="8">
+        <f t="shared" si="12"/>
+        <v>0.14684150000000001</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="13"/>
+        <v>0.16229850000000001</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="14"/>
+        <v>0.14960599999999999</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="15"/>
+        <v>0.16535400000000003</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="16"/>
+        <v>0.13975449999999998</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="17"/>
+        <v>0.15446550000000001</v>
+      </c>
+      <c r="N10" s="8">
         <f t="shared" si="6"/>
-        <v>0.14684150000000001</v>
-      </c>
-      <c r="I10" s="9">
+        <v>0.22602</v>
+      </c>
+      <c r="O10" s="9">
         <f t="shared" si="7"/>
-        <v>0.16229850000000001</v>
-      </c>
-      <c r="J10" s="8">
+        <v>0.22602</v>
+      </c>
+      <c r="P10" s="14">
         <f t="shared" si="8"/>
-        <v>0.14960599999999999</v>
-      </c>
-      <c r="K10" s="14">
+        <v>0.2954</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="9"/>
-        <v>0.16535400000000003</v>
-      </c>
-      <c r="L10" s="8">
+        <v>0.2954</v>
+      </c>
+      <c r="R10" s="8">
         <f t="shared" si="10"/>
-        <v>0.13975449999999998</v>
-      </c>
-      <c r="M10" s="14">
+        <v>0.27298</v>
+      </c>
+      <c r="S10" s="9">
         <f t="shared" si="11"/>
-        <v>0.15446550000000001</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="12"/>
-        <v>0.21471899999999999</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="13"/>
-        <v>0.237321</v>
-      </c>
-      <c r="P10" s="14">
-        <f t="shared" si="14"/>
-        <v>0.28062999999999999</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="15"/>
-        <v>0.31017</v>
-      </c>
-      <c r="R10" s="8">
-        <f t="shared" si="16"/>
-        <v>0.25933099999999998</v>
-      </c>
-      <c r="S10" s="9">
-        <f t="shared" si="17"/>
-        <v>0.28662900000000002</v>
+        <v>0.27298</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="18"/>
-        <v>0.251583</v>
+        <v>0.26638200000000001</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="19"/>
-        <v>0.34037699999999999</v>
+        <v>0.32557800000000003</v>
       </c>
       <c r="V10" s="19">
         <v>7.8090000000000007E-2</v>

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF7893-0C10-DA49-9D51-99320AD3D3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCAE2B8-5376-D544-9549-6BB76150E792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34280" yWindow="3600" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="-34880" yWindow="1700" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -4219,8 +4219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB763D9-E2BC-6648-8EBF-6CD797CFD531}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:M10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4360,28 +4360,28 @@
         <v>-4.5427</v>
       </c>
       <c r="H2" s="8">
-        <f>1.05*Y2</f>
-        <v>-9.3490320000000011</v>
+        <f>1.02*Y2</f>
+        <v>-9.0819168000000001</v>
       </c>
       <c r="I2" s="9">
-        <f>0.95*Y2</f>
-        <v>-8.4586480000000002</v>
+        <f>0.98*Y2</f>
+        <v>-8.7257632000000012</v>
       </c>
       <c r="J2" s="8">
-        <f>1.05*Z2</f>
-        <v>-9.7724970000000013</v>
+        <f>1.02*Z2</f>
+        <v>-9.4932828000000011</v>
       </c>
       <c r="K2" s="14">
-        <f>0.95*Z2</f>
-        <v>-8.8417829999999995</v>
+        <f>0.98*Z2</f>
+        <v>-9.1209971999999997</v>
       </c>
       <c r="L2" s="8">
-        <f>1.05*AA2</f>
-        <v>-9.3731400000000011</v>
+        <f>1.02*AA2</f>
+        <v>-9.1053359999999994</v>
       </c>
       <c r="M2" s="14">
-        <f>0.95*AA2</f>
-        <v>-8.480459999999999</v>
+        <f>0.98*AA2</f>
+        <v>-8.7482640000000007</v>
       </c>
       <c r="N2" s="8">
         <f>1*AB2</f>
@@ -4408,12 +4408,12 @@
         <v>-17.321020000000001</v>
       </c>
       <c r="T2" s="8">
-        <f>AE2*1.1</f>
-        <v>-22.483846</v>
+        <f>AE2*1.07</f>
+        <v>-21.8706502</v>
       </c>
       <c r="U2" s="9">
-        <f>AE2*0.9</f>
-        <v>-18.395873999999999</v>
+        <f>AE2*0.93</f>
+        <v>-19.009069799999999</v>
       </c>
       <c r="V2" s="19">
         <v>-4.6704699999999999</v>
@@ -4475,28 +4475,28 @@
         <v>3.4927899999999998</v>
       </c>
       <c r="H3" s="8">
-        <f>0.95*Y3</f>
-        <v>5.7704899999999997</v>
+        <f>0.98*Y3</f>
+        <v>5.9527160000000006</v>
       </c>
       <c r="I3" s="9">
-        <f>1.05*Y3</f>
-        <v>6.3779100000000009</v>
+        <f>1.02*Y3</f>
+        <v>6.195684</v>
       </c>
       <c r="J3" s="8">
-        <f>0.95*Z3</f>
-        <v>4.9245149999999995</v>
+        <f>0.98*Z3</f>
+        <v>5.0800260000000002</v>
       </c>
       <c r="K3" s="14">
-        <f>1.05*Z3</f>
-        <v>5.4428850000000004</v>
+        <f>1.02*Z3</f>
+        <v>5.2873739999999998</v>
       </c>
       <c r="L3" s="8">
-        <f>0.95*AA3</f>
-        <v>4.7192105</v>
+        <f>0.98*AA3</f>
+        <v>4.8682382000000004</v>
       </c>
       <c r="M3" s="14">
-        <f>1.05*AA3</f>
-        <v>5.2159695000000008</v>
+        <f>1.02*AA3</f>
+        <v>5.0669418000000004</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" ref="N3:N10" si="6">1*AB3</f>
@@ -4523,12 +4523,12 @@
         <v>2.3608500000000001</v>
       </c>
       <c r="T3" s="8">
-        <f>AE3*0.9</f>
-        <v>0.68545800000000001</v>
+        <f>AE3*0.93</f>
+        <v>0.70830660000000001</v>
       </c>
       <c r="U3" s="9">
-        <f>AE3*1.1</f>
-        <v>0.83778200000000003</v>
+        <f>AE3*1.07</f>
+        <v>0.81493340000000003</v>
       </c>
       <c r="V3" s="19">
         <v>3.0634600000000001</v>
@@ -4590,28 +4590,28 @@
         <v>2.7262928480360573E-2</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H10" si="12">0.95*Y4</f>
-        <v>6.13641137107689E-2</v>
+        <f t="shared" ref="H4:H10" si="12">0.98*Y4</f>
+        <v>6.3301927827951077E-2</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I10" si="13">1.05*Y4</f>
-        <v>6.7823494101376156E-2</v>
+        <f t="shared" ref="I4:I10" si="13">1.02*Y4</f>
+        <v>6.5885679984193979E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J10" si="14">0.95*Z4</f>
-        <v>6.3997418117165916E-2</v>
+        <f t="shared" ref="J4:J10" si="14">0.98*Z4</f>
+        <v>6.6018389215602741E-2</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ref="K4:K10" si="15">1.05*Z4</f>
-        <v>7.0733988445288665E-2</v>
+        <f t="shared" ref="K4:K10" si="15">1.02*Z4</f>
+        <v>6.871301734685184E-2</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L10" si="16">0.95*AA4</f>
-        <v>6.6322116566399997E-2</v>
+        <f t="shared" ref="L4:L10" si="16">0.98*AA4</f>
+        <v>6.841649919481263E-2</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" ref="M4:M10" si="17">1.05*AA4</f>
-        <v>7.3303391994442108E-2</v>
+        <f t="shared" ref="M4:M10" si="17">1.02*AA4</f>
+        <v>7.1209009366029474E-2</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="6"/>
@@ -4638,12 +4638,12 @@
         <v>0.14532221083651503</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" ref="T4:T10" si="18">AE4*0.9</f>
-        <v>2.701490377113884E-2</v>
+        <f t="shared" ref="T4:T10" si="18">AE4*0.93</f>
+        <v>2.7915400563510134E-2</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:U10" si="19">AE4*1.1</f>
-        <v>3.3018215720280804E-2</v>
+        <f t="shared" ref="U4:U10" si="19">AE4*1.07</f>
+        <v>3.211771892790951E-2</v>
       </c>
       <c r="V4" s="19">
         <v>1.9482170717677879E-2</v>
@@ -4706,27 +4706,27 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" si="12"/>
-        <v>5.7704899999999997</v>
+        <v>5.9527160000000006</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="13"/>
-        <v>6.3779100000000009</v>
+        <v>6.195684</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" si="14"/>
-        <v>4.9245149999999995</v>
+        <v>5.0800260000000002</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" si="15"/>
-        <v>5.4428850000000004</v>
+        <v>5.2873739999999998</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="16"/>
-        <v>4.7192105</v>
+        <v>4.8682382000000004</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" si="17"/>
-        <v>5.2159695000000008</v>
+        <v>5.0669418000000004</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="6"/>
@@ -4754,11 +4754,11 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="18"/>
-        <v>0.68545800000000001</v>
+        <v>0.70830660000000001</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="19"/>
-        <v>0.83778200000000003</v>
+        <v>0.81493340000000003</v>
       </c>
       <c r="V5" s="19">
         <v>3.0634600000000001</v>
@@ -4821,27 +4821,27 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" si="12"/>
-        <v>12.063660499999999</v>
+        <v>12.444618199999999</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="13"/>
-        <v>13.3335195</v>
+        <v>12.9525618</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="14"/>
-        <v>10.604260999999999</v>
+        <v>10.9391324</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="15"/>
-        <v>11.720499000000002</v>
+        <v>11.385627600000001</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="16"/>
-        <v>9.8604584999999982</v>
+        <v>10.1718414</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" si="17"/>
-        <v>10.8984015</v>
+        <v>10.587018599999999</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="6"/>
@@ -4869,11 +4869,11 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="18"/>
-        <v>1.1834100000000001</v>
+        <v>1.2228570000000001</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="19"/>
-        <v>1.4463900000000001</v>
+        <v>1.4069430000000001</v>
       </c>
       <c r="V6" s="19">
         <v>6.4376199999999999</v>
@@ -4936,27 +4936,27 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="12"/>
-        <v>2.1811429999999996</v>
+        <v>2.2500211999999999</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="13"/>
-        <v>2.4107370000000001</v>
+        <v>2.3418587999999998</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="14"/>
-        <v>3.6401624999999997</v>
+        <v>3.755115</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="15"/>
-        <v>4.0233375000000002</v>
+        <v>3.908385</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="16"/>
-        <v>3.309078</v>
+        <v>3.4135751999999999</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="17"/>
-        <v>3.6574019999999998</v>
+        <v>3.5529047999999999</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="6"/>
@@ -4984,11 +4984,11 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="18"/>
-        <v>25.056099</v>
+        <v>25.8913023</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="19"/>
-        <v>30.624121000000002</v>
+        <v>29.788917700000002</v>
       </c>
       <c r="V7" s="19">
         <v>1.23291</v>
@@ -5051,27 +5051,27 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="12"/>
-        <v>0.3878432890380582</v>
+        <v>0.40009097184978637</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="13"/>
-        <v>0.42866889841048539</v>
+        <v>0.41642121559875722</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="14"/>
-        <v>0.37512702242455526</v>
+        <v>0.38697313892217283</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="15"/>
-        <v>0.41461407741661377</v>
+        <v>0.40276796091899619</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="16"/>
-        <v>0.35962771634053697</v>
+        <v>0.37098438106708026</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="17"/>
-        <v>0.39748326542901463</v>
+        <v>0.38612660070247135</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="6"/>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="18"/>
-        <v>2.8785175384676405E-2</v>
+        <v>2.9744681230832286E-2</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="19"/>
-        <v>3.5181881025715608E-2</v>
+        <v>3.4222375179559728E-2</v>
       </c>
       <c r="V8" s="19">
         <v>0.21566181769496032</v>
@@ -5166,27 +5166,27 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" si="12"/>
-        <v>3.0114999999999996E-2</v>
+        <v>3.1066E-2</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="13"/>
-        <v>3.3285000000000002E-2</v>
+        <v>3.2334000000000002E-2</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="14"/>
-        <v>5.4111999999999993E-2</v>
+        <v>5.5820799999999997E-2</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="15"/>
-        <v>5.9808E-2</v>
+        <v>5.8099199999999997E-2</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="16"/>
-        <v>5.0882000000000004E-2</v>
+        <v>5.2488800000000002E-2</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="17"/>
-        <v>5.6238000000000003E-2</v>
+        <v>5.4631200000000005E-2</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="6"/>
@@ -5214,11 +5214,11 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="18"/>
-        <v>7.8741000000000005E-2</v>
+        <v>8.1365699999999999E-2</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="19"/>
-        <v>9.6239000000000005E-2</v>
+        <v>9.3614299999999998E-2</v>
       </c>
       <c r="V9" s="19">
         <v>3.6999999999999999E-4</v>
@@ -5281,27 +5281,27 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" si="12"/>
-        <v>0.14684150000000001</v>
+        <v>0.15147860000000002</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="13"/>
-        <v>0.16229850000000001</v>
+        <v>0.15766140000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="14"/>
-        <v>0.14960599999999999</v>
+        <v>0.15433040000000001</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="15"/>
-        <v>0.16535400000000003</v>
+        <v>0.16062960000000001</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="16"/>
-        <v>0.13975449999999998</v>
+        <v>0.14416779999999998</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="17"/>
-        <v>0.15446550000000001</v>
+        <v>0.1500522</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="6"/>
@@ -5329,11 +5329,11 @@
       </c>
       <c r="T10" s="8">
         <f t="shared" si="18"/>
-        <v>0.26638200000000001</v>
+        <v>0.27526140000000004</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="19"/>
-        <v>0.32557800000000003</v>
+        <v>0.31669860000000005</v>
       </c>
       <c r="V10" s="19">
         <v>7.8090000000000007E-2</v>

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCAE2B8-5376-D544-9549-6BB76150E792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293240E4-6419-1F45-BF43-BDE958FA92DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34880" yWindow="1700" windowWidth="27760" windowHeight="17540" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="chemostat_data_1" sheetId="5" r:id="rId7"/>
     <sheet name="chemostat_data_2" sheetId="14" r:id="rId8"/>
     <sheet name="Exchange_rates" sheetId="11" r:id="rId9"/>
+    <sheet name="AA_factors_before20200203" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="179">
   <si>
     <t>RxnID</t>
   </si>
@@ -909,7 +912,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
+                  <a:endParaRPr lang="en-SE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1081,7 +1084,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
+              <a:endParaRPr lang="en-SE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1116,7 +1119,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1604487631"/>
@@ -1208,7 +1211,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
+              <a:endParaRPr lang="en-SE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1243,7 +1246,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1604485823"/>
@@ -1297,7 +1300,7 @@
           <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="en-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1399,17 +1402,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
+                  <a:endParaRPr lang="en-SE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>chemostat_data_1!$B$1:$J$1</c:f>
+              <c:f>chemostat_data_1!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.15</c:v>
                 </c:pt>
@@ -1437,15 +1440,18 @@
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>chemostat_data_1!$B$33:$J$33</c:f>
+              <c:f>chemostat_data_1!$B$33:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-2.0101866981057873E-2</c:v>
                 </c:pt>
@@ -1469,6 +1475,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-3.465442780435872E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11027099199886925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1555,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1596954735"/>
@@ -1608,7 +1617,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
+            <a:endParaRPr lang="en-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1619965743"/>
@@ -1656,7 +1665,404 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="en-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9228783902012246E-2"/>
+                  <c:y val="8.9778725575969665E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>chemostat_data_2!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>chemostat_data_2!$Z$2:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-2.0101866981057873E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1781921910230668E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1190378509441367E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.8452449520074233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.7458008376856438E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4056506811783429E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6260288301916429E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.6706797322599975E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.465442780435872E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.11027099199886925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AFF-D341-8B60-CDEA584AB398}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1581326736"/>
+        <c:axId val="1581340112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1581326736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581340112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1581340112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581326736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1708,6 +2114,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2779,6 +3225,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2824,16 +3786,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2841,6 +3803,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF69E525-089E-D647-A78C-37805961D3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9E48DB-A242-2E46-860C-379CE3A63312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4215,11 +5218,196 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C6A3AF-CA5F-7C4D-AB01-F74EE2FDCAE2}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>-0.57240000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>-1.6568000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>-0.51359999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>-8.1799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-8.48E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>-0.7258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>-0.21740000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10">
+        <v>-7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11">
+        <v>-0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <v>-0.65090000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13">
+        <v>-0.31009999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14">
+        <v>-0.15010000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <v>-0.1464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-4.5895999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>-1.8768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18">
+        <v>-0.59389999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19">
+        <v>-0.16170000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20">
+        <v>-8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21">
+        <v>-0.42959999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB763D9-E2BC-6648-8EBF-6CD797CFD531}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
@@ -12764,8 +13952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CF59E3-8B2D-AE4F-B62F-4D35C34721B5}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12784,7 +13972,7 @@
         <v>115</v>
       </c>
       <c r="B2">
-        <v>-0.57240000000000002</v>
+        <v>-0.67820000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12800,7 +13988,7 @@
         <v>117</v>
       </c>
       <c r="B4">
-        <v>-0.51359999999999995</v>
+        <v>-0.57550000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12808,7 +13996,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.13200000000000001</v>
+        <v>-0.1341</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12816,7 +14004,7 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>-8.1799999999999998E-2</v>
+        <v>-0.10979999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12824,7 +14012,7 @@
         <v>128</v>
       </c>
       <c r="B7" s="2">
-        <v>-8.48E-2</v>
+        <v>-8.6099999999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12832,7 +14020,7 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>-0.7258</v>
+        <v>-0.78649999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12840,7 +14028,7 @@
         <v>129</v>
       </c>
       <c r="B9">
-        <v>-0.21740000000000001</v>
+        <v>-0.247</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12848,7 +14036,7 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <v>-7.3400000000000007E-2</v>
+        <v>-8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12856,7 +14044,7 @@
         <v>134</v>
       </c>
       <c r="B11">
-        <v>-0.54100000000000004</v>
+        <v>-0.55100000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12864,7 +14052,7 @@
         <v>136</v>
       </c>
       <c r="B12">
-        <v>-0.65090000000000003</v>
+        <v>-0.65790000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12872,7 +14060,7 @@
         <v>137</v>
       </c>
       <c r="B13">
-        <v>-0.31009999999999999</v>
+        <v>-0.3846</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12880,7 +14068,7 @@
         <v>138</v>
       </c>
       <c r="B14">
-        <v>-0.15010000000000001</v>
+        <v>-0.1593</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12888,7 +14076,7 @@
         <v>144</v>
       </c>
       <c r="B15">
-        <v>-0.1464</v>
+        <v>-0.16689999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12896,7 +14084,7 @@
         <v>147</v>
       </c>
       <c r="B16" s="2">
-        <v>-4.5895999999999999</v>
+        <v>-4.6634000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12904,7 +14092,7 @@
         <v>149</v>
       </c>
       <c r="B17">
-        <v>-1.8768</v>
+        <v>-1.9766999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12912,7 +14100,7 @@
         <v>153</v>
       </c>
       <c r="B18">
-        <v>-0.59389999999999998</v>
+        <v>-0.61299999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12920,7 +14108,7 @@
         <v>154</v>
       </c>
       <c r="B19">
-        <v>-0.16170000000000001</v>
+        <v>-0.17080000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12928,7 +14116,7 @@
         <v>155</v>
       </c>
       <c r="B20">
-        <v>-8.0399999999999999E-2</v>
+        <v>-9.3200000000000005E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12936,7 +14124,7 @@
         <v>156</v>
       </c>
       <c r="B21">
-        <v>-0.42959999999999998</v>
+        <v>-0.45619999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13735,8 +14923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30311E4-68BA-2D4C-A676-3CF9B7C04A34}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15209,7 +16397,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z13"/>
+      <selection activeCell="A2" activeCellId="1" sqref="Z2:Z13 A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16922,6 +18110,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Simulations/Exchange_reaction_setting.xlsx
+++ b/Simulations/Exchange_reaction_setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293240E4-6419-1F45-BF43-BDE958FA92DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF34615-9661-F547-8AB7-977FB94253BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{1A7FD5EC-950A-DE40-AFFC-07E0D3BC8A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -5407,8 +5407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB763D9-E2BC-6648-8EBF-6CD797CFD531}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5548,28 +5548,28 @@
         <v>-4.5427</v>
       </c>
       <c r="H2" s="8">
-        <f>1.02*Y2</f>
-        <v>-9.0819168000000001</v>
+        <f>1*Y2</f>
+        <v>-8.9038400000000006</v>
       </c>
       <c r="I2" s="9">
-        <f>0.98*Y2</f>
-        <v>-8.7257632000000012</v>
+        <f>1*Y2</f>
+        <v>-8.9038400000000006</v>
       </c>
       <c r="J2" s="8">
-        <f>1.02*Z2</f>
-        <v>-9.4932828000000011</v>
+        <f>1*Z2</f>
+        <v>-9.3071400000000004</v>
       </c>
       <c r="K2" s="14">
-        <f>0.98*Z2</f>
-        <v>-9.1209971999999997</v>
+        <f>1*Z2</f>
+        <v>-9.3071400000000004</v>
       </c>
       <c r="L2" s="8">
-        <f>1.02*AA2</f>
-        <v>-9.1053359999999994</v>
+        <f>1*AA2</f>
+        <v>-8.9268000000000001</v>
       </c>
       <c r="M2" s="14">
-        <f>0.98*AA2</f>
-        <v>-8.7482640000000007</v>
+        <f>1*AA2</f>
+        <v>-8.9268000000000001</v>
       </c>
       <c r="N2" s="8">
         <f>1*AB2</f>
@@ -5596,12 +5596,12 @@
         <v>-17.321020000000001</v>
       </c>
       <c r="T2" s="8">
-        <f>AE2*1.07</f>
-        <v>-21.8706502</v>
+        <f>AE2*1.15</f>
+        <v>-23.505838999999998</v>
       </c>
       <c r="U2" s="9">
-        <f>AE2*0.93</f>
-        <v>-19.009069799999999</v>
+        <f>AE2*0.85</f>
+        <v>-17.373881000000001</v>
       </c>
       <c r="V2" s="19">
         <v>-4.6704699999999999</v>
@@ -5663,60 +5663,60 @@
         <v>3.4927899999999998</v>
       </c>
       <c r="H3" s="8">
-        <f>0.98*Y3</f>
-        <v>5.9527160000000006</v>
+        <f t="shared" ref="H3:H10" si="6">1*Y3</f>
+        <v>6.0742000000000003</v>
       </c>
       <c r="I3" s="9">
-        <f>1.02*Y3</f>
-        <v>6.195684</v>
+        <f t="shared" ref="I3:I10" si="7">1*Y3</f>
+        <v>6.0742000000000003</v>
       </c>
       <c r="J3" s="8">
-        <f>0.98*Z3</f>
-        <v>5.0800260000000002</v>
+        <f t="shared" ref="J3:J10" si="8">1*Z3</f>
+        <v>5.1837</v>
       </c>
       <c r="K3" s="14">
-        <f>1.02*Z3</f>
-        <v>5.2873739999999998</v>
+        <f t="shared" ref="K3:K10" si="9">1*Z3</f>
+        <v>5.1837</v>
       </c>
       <c r="L3" s="8">
-        <f>0.98*AA3</f>
-        <v>4.8682382000000004</v>
+        <f t="shared" ref="L3:L10" si="10">1*AA3</f>
+        <v>4.9675900000000004</v>
       </c>
       <c r="M3" s="14">
-        <f>1.02*AA3</f>
-        <v>5.0669418000000004</v>
+        <f t="shared" ref="M3:M10" si="11">1*AA3</f>
+        <v>4.9675900000000004</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N10" si="6">1*AB3</f>
+        <f t="shared" ref="N3:N10" si="12">1*AB3</f>
         <v>4.3114600000000003</v>
       </c>
       <c r="O3" s="9">
-        <f t="shared" ref="O3:O10" si="7">1*AB3</f>
+        <f t="shared" ref="O3:O10" si="13">1*AB3</f>
         <v>4.3114600000000003</v>
       </c>
       <c r="P3" s="14">
-        <f t="shared" ref="P3:P10" si="8">1*AC3</f>
+        <f t="shared" ref="P3:P10" si="14">1*AC3</f>
         <v>2.6438700000000002</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Q10" si="9">1*AC3</f>
+        <f t="shared" ref="Q3:Q10" si="15">1*AC3</f>
         <v>2.6438700000000002</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:R10" si="10">1*AD3</f>
+        <f t="shared" ref="R3:R10" si="16">1*AD3</f>
         <v>2.3608500000000001</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3:S10" si="11">1*AD3</f>
+        <f t="shared" ref="S3:S10" si="17">1*AD3</f>
         <v>2.3608500000000001</v>
       </c>
       <c r="T3" s="8">
-        <f>AE3*0.93</f>
-        <v>0.70830660000000001</v>
+        <f>AE3*0.85</f>
+        <v>0.64737699999999998</v>
       </c>
       <c r="U3" s="9">
-        <f>AE3*1.07</f>
-        <v>0.81493340000000003</v>
+        <f>AE3*1.15</f>
+        <v>0.87586299999999984</v>
       </c>
       <c r="V3" s="19">
         <v>3.0634600000000001</v>
@@ -5778,60 +5778,60 @@
         <v>2.7262928480360573E-2</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H10" si="12">0.98*Y4</f>
-        <v>6.3301927827951077E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.4593803906072528E-2</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I10" si="13">1.02*Y4</f>
-        <v>6.5885679984193979E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.4593803906072528E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J10" si="14">0.98*Z4</f>
-        <v>6.6018389215602741E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.736570328122729E-2</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ref="K4:K10" si="15">1.02*Z4</f>
-        <v>6.871301734685184E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.736570328122729E-2</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L10" si="16">0.98*AA4</f>
-        <v>6.841649919481263E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.9812754280421052E-2</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" ref="M4:M10" si="17">1.02*AA4</f>
-        <v>7.1209009366029474E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.9812754280421052E-2</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.12889701078385629</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.12889701078385629</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.14226279761659555</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.14226279761659555</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.14532221083651503</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.14532221083651503</v>
       </c>
       <c r="T4" s="8">
-        <f t="shared" ref="T4:T10" si="18">AE4*0.93</f>
-        <v>2.7915400563510134E-2</v>
+        <f t="shared" ref="T4:T10" si="18">AE4*0.85</f>
+        <v>2.5514075783853347E-2</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:U10" si="19">AE4*1.07</f>
-        <v>3.211771892790951E-2</v>
+        <f t="shared" ref="U4:U10" si="19">AE4*1.15</f>
+        <v>3.451904370756629E-2</v>
       </c>
       <c r="V4" s="19">
         <v>1.9482170717677879E-2</v>
@@ -5893,60 +5893,60 @@
         <v>3.4927899999999998</v>
       </c>
       <c r="H5" s="8">
+        <f t="shared" si="6"/>
+        <v>6.0742000000000003</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="7"/>
+        <v>6.0742000000000003</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="8"/>
+        <v>5.1837</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="9"/>
+        <v>5.1837</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="10"/>
+        <v>4.9675900000000004</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="11"/>
+        <v>4.9675900000000004</v>
+      </c>
+      <c r="N5" s="8">
         <f t="shared" si="12"/>
-        <v>5.9527160000000006</v>
-      </c>
-      <c r="I5" s="9">
+        <v>4.3114600000000003</v>
+      </c>
+      <c r="O5" s="9">
         <f t="shared" si="13"/>
-        <v>6.195684</v>
-      </c>
-      <c r="J5" s="8">
+        <v>4.3114600000000003</v>
+      </c>
+      <c r="P5" s="14">
         <f t="shared" si="14"/>
-        <v>5.0800260000000002</v>
-      </c>
-      <c r="K5" s="14">
+        <v>2.6438700000000002</v>
+      </c>
+      <c r="Q5" s="9">
         <f t="shared" si="15"/>
-        <v>5.2873739999999998</v>
-      </c>
-      <c r="L5" s="8">
+        <v>2.6438700000000002</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" si="16"/>
-        <v>4.8682382000000004</v>
-      </c>
-      <c r="M5" s="14">
+        <v>2.3608500000000001</v>
+      </c>
+      <c r="S5" s="9">
         <f t="shared" si="17"/>
-        <v>5.0669418000000004</v>
-      </c>
-      <c r="N5" s="8">
-        <f t="shared" si="6"/>
-        <v>4.3114600000000003</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="7"/>
-        <v>4.3114600000000003</v>
-      </c>
-      <c r="P5" s="14">
-        <f t="shared" si="8"/>
-        <v>2.6438700000000002</v>
-      </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="9"/>
-        <v>2.6438700000000002</v>
-      </c>
-      <c r="R5" s="8">
-        <f t="shared" si="10"/>
-        <v>2.3608500000000001</v>
-      </c>
-      <c r="S5" s="9">
-        <f t="shared" si="11"/>
         <v>2.3608500000000001</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" si="18"/>
-        <v>0.70830660000000001</v>
+        <v>0.64737699999999998</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="19"/>
-        <v>0.81493340000000003</v>
+        <v>0.87586299999999984</v>
       </c>
       <c r="V5" s="19">
         <v>3.0634600000000001</v>
@@ -6008,60 +6008,60 @@
         <v>7.1179199999999998</v>
       </c>
       <c r="H6" s="8">
+        <f t="shared" si="6"/>
+        <v>12.698589999999999</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="7"/>
+        <v>12.698589999999999</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="8"/>
+        <v>11.162380000000001</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="9"/>
+        <v>11.162380000000001</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="10"/>
+        <v>10.379429999999999</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="11"/>
+        <v>10.379429999999999</v>
+      </c>
+      <c r="N6" s="8">
         <f t="shared" si="12"/>
-        <v>12.444618199999999</v>
-      </c>
-      <c r="I6" s="9">
+        <v>8.8881499999999996</v>
+      </c>
+      <c r="O6" s="9">
         <f t="shared" si="13"/>
-        <v>12.9525618</v>
-      </c>
-      <c r="J6" s="8">
+        <v>8.8881499999999996</v>
+      </c>
+      <c r="P6" s="14">
         <f t="shared" si="14"/>
-        <v>10.9391324</v>
-      </c>
-      <c r="K6" s="14">
+        <v>5.2999599999999996</v>
+      </c>
+      <c r="Q6" s="9">
         <f t="shared" si="15"/>
-        <v>11.385627600000001</v>
-      </c>
-      <c r="L6" s="8">
+        <v>5.2999599999999996</v>
+      </c>
+      <c r="R6" s="8">
         <f t="shared" si="16"/>
-        <v>10.1718414</v>
-      </c>
-      <c r="M6" s="14">
+        <v>4.6127599999999997</v>
+      </c>
+      <c r="S6" s="9">
         <f t="shared" si="17"/>
-        <v>10.587018599999999</v>
-      </c>
-      <c r="N6" s="8">
-        <f t="shared" si="6"/>
-        <v>8.8881499999999996</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="7"/>
-        <v>8.8881499999999996</v>
-      </c>
-      <c r="P6" s="14">
-        <f t="shared" si="8"/>
-        <v>5.2999599999999996</v>
-      </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="9"/>
-        <v>5.2999599999999996</v>
-      </c>
-      <c r="R6" s="8">
-        <f t="shared" si="10"/>
-        <v>4.6127599999999997</v>
-      </c>
-      <c r="S6" s="9">
-        <f t="shared" si="11"/>
         <v>4.6127599999999997</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="18"/>
-        <v>1.2228570000000001</v>
+        <v>1.1176649999999999</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="19"/>
-        <v>1.4069430000000001</v>
+        <v>1.5121349999999998</v>
       </c>
       <c r="V6" s="19">
         <v>6.4376199999999999</v>
@@ -6123,60 +6123,60 @@
         <v>0.72792000000000001</v>
       </c>
       <c r="H7" s="8">
+        <f t="shared" si="6"/>
+        <v>2.2959399999999999</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="7"/>
+        <v>2.2959399999999999</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="8"/>
+        <v>3.83175</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="9"/>
+        <v>3.83175</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="10"/>
+        <v>3.4832399999999999</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="11"/>
+        <v>3.4832399999999999</v>
+      </c>
+      <c r="N7" s="8">
         <f t="shared" si="12"/>
-        <v>2.2500211999999999</v>
-      </c>
-      <c r="I7" s="9">
+        <v>15.397539999999999</v>
+      </c>
+      <c r="O7" s="9">
         <f t="shared" si="13"/>
-        <v>2.3418587999999998</v>
-      </c>
-      <c r="J7" s="8">
+        <v>15.397539999999999</v>
+      </c>
+      <c r="P7" s="14">
         <f t="shared" si="14"/>
-        <v>3.755115</v>
-      </c>
-      <c r="K7" s="14">
+        <v>21.88917</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="15"/>
-        <v>3.908385</v>
-      </c>
-      <c r="L7" s="8">
+        <v>21.88917</v>
+      </c>
+      <c r="R7" s="8">
         <f t="shared" si="16"/>
-        <v>3.4135751999999999</v>
-      </c>
-      <c r="M7" s="14">
+        <v>22.370090000000001</v>
+      </c>
+      <c r="S7" s="9">
         <f t="shared" si="17"/>
-        <v>3.5529047999999999</v>
-      </c>
-      <c r="N7" s="8">
-        <f t="shared" si="6"/>
-        <v>15.397539999999999</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="7"/>
-        <v>15.397539999999999</v>
-      </c>
-      <c r="P7" s="14">
-        <f t="shared" si="8"/>
-        <v>21.88917</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="9"/>
-        <v>21.88917</v>
-      </c>
-      <c r="R7" s="8">
-        <f t="shared" si="10"/>
-        <v>22.370090000000001</v>
-      </c>
-      <c r="S7" s="9">
-        <f t="shared" si="11"/>
         <v>22.370090000000001</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="18"/>
-        <v>25.8913023</v>
+        <v>23.6640935</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="19"/>
-        <v>29.788917700000002</v>
+        <v>32.016126499999999</v>
       </c>
       <c r="V7" s="19">
         <v>1.23291</v>
@@ -6238,60 +6238,60 @@
         <v>0.20969334832645756</v>
       </c>
       <c r="H8" s="8">
+        <f t="shared" si="6"/>
+        <v>0.4082560937242718</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="7"/>
+        <v>0.4082560937242718</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.39487054992058451</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="9"/>
+        <v>0.39487054992058451</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="10"/>
+        <v>0.3785554908847758</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="11"/>
+        <v>0.3785554908847758</v>
+      </c>
+      <c r="N8" s="8">
         <f t="shared" si="12"/>
-        <v>0.40009097184978637</v>
-      </c>
-      <c r="I8" s="9">
+        <v>0.61004428128870769</v>
+      </c>
+      <c r="O8" s="9">
         <f t="shared" si="13"/>
-        <v>0.41642121559875722</v>
-      </c>
-      <c r="J8" s="8">
+        <v>0.61004428128870769</v>
+      </c>
+      <c r="P8" s="14">
         <f t="shared" si="14"/>
-        <v>0.38697313892217283</v>
-      </c>
-      <c r="K8" s="14">
+        <v>0.6195883909222919</v>
+      </c>
+      <c r="Q8" s="9">
         <f t="shared" si="15"/>
-        <v>0.40276796091899619</v>
-      </c>
-      <c r="L8" s="8">
+        <v>0.6195883909222919</v>
+      </c>
+      <c r="R8" s="8">
         <f t="shared" si="16"/>
-        <v>0.37098438106708026</v>
-      </c>
-      <c r="M8" s="14">
+        <v>0.61865417204417505</v>
+      </c>
+      <c r="S8" s="9">
         <f t="shared" si="17"/>
-        <v>0.38612660070247135</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" si="6"/>
-        <v>0.61004428128870769</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="7"/>
-        <v>0.61004428128870769</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="8"/>
-        <v>0.6195883909222919</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="9"/>
-        <v>0.6195883909222919</v>
-      </c>
-      <c r="R8" s="8">
-        <f t="shared" si="10"/>
-        <v>0.61865417204417505</v>
-      </c>
-      <c r="S8" s="9">
-        <f t="shared" si="11"/>
         <v>0.61865417204417505</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="18"/>
-        <v>2.9744681230832286E-2</v>
+        <v>2.7185998974416602E-2</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="19"/>
-        <v>3.4222375179559728E-2</v>
+        <v>3.6781057435975401E-2</v>
       </c>
       <c r="V8" s="19">
         <v>0.21566181769496032</v>
@@ -6353,60 +6353,60 @@
         <v>0</v>
       </c>
       <c r="H9" s="8">
+        <f t="shared" si="6"/>
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="7"/>
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="8"/>
+        <v>5.6959999999999997E-2</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="9"/>
+        <v>5.6959999999999997E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="10"/>
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="11"/>
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="N9" s="8">
         <f t="shared" si="12"/>
-        <v>3.1066E-2</v>
-      </c>
-      <c r="I9" s="9">
+        <v>5.8639999999999998E-2</v>
+      </c>
+      <c r="O9" s="9">
         <f t="shared" si="13"/>
-        <v>3.2334000000000002E-2</v>
-      </c>
-      <c r="J9" s="8">
+        <v>5.8639999999999998E-2</v>
+      </c>
+      <c r="P9" s="14">
         <f t="shared" si="14"/>
-        <v>5.5820799999999997E-2</v>
-      </c>
-      <c r="K9" s="14">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="15"/>
-        <v>5.8099199999999997E-2</v>
-      </c>
-      <c r="L9" s="8">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="R9" s="8">
         <f t="shared" si="16"/>
-        <v>5.2488800000000002E-2</v>
-      </c>
-      <c r="M9" s="14">
+        <v>4.7809999999999998E-2</v>
+      </c>
+      <c r="S9" s="9">
         <f t="shared" si="17"/>
-        <v>5.4631200000000005E-2</v>
-      </c>
-      <c r="N9" s="8">
-        <f t="shared" si="6"/>
-        <v>5.8639999999999998E-2</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="7"/>
-        <v>5.8639999999999998E-2</v>
-      </c>
-      <c r="P9" s="14">
-        <f t="shared" si="8"/>
-        <v>3.2799999999999999E-3</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="9"/>
-        <v>3.2799999999999999E-3</v>
-      </c>
-      <c r="R9" s="8">
-        <f t="shared" si="10"/>
-        <v>4.7809999999999998E-2</v>
-      </c>
-      <c r="S9" s="9">
-        <f t="shared" si="11"/>
         <v>4.7809999999999998E-2</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="18"/>
-        <v>8.1365699999999999E-2</v>
+        <v>7.4366500000000002E-2</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="19"/>
-        <v>9.3614299999999998E-2</v>
+        <v>0.10061349999999999</v>
       </c>
       <c r="V9" s="19">
         <v>3.6999999999999999E-4</v>
@@ -6468,60 +6468,60 @@
         <v>7.2859999999999994E-2</v>
       </c>
       <c r="H10" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15457000000000001</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="7"/>
+        <v>0.15457000000000001</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="8"/>
+        <v>0.15748000000000001</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="9"/>
+        <v>0.15748000000000001</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.14710999999999999</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="11"/>
+        <v>0.14710999999999999</v>
+      </c>
+      <c r="N10" s="8">
         <f t="shared" si="12"/>
-        <v>0.15147860000000002</v>
-      </c>
-      <c r="I10" s="9">
+        <v>0.22602</v>
+      </c>
+      <c r="O10" s="9">
         <f t="shared" si="13"/>
-        <v>0.15766140000000001</v>
-      </c>
-      <c r="J10" s="8">
+        <v>0.22602</v>
+      </c>
+      <c r="P10" s="14">
         <f t="shared" si="14"/>
-        <v>0.15433040000000001</v>
-      </c>
-      <c r="K10" s="14">
+        <v>0.2954</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="15"/>
-        <v>0.16062960000000001</v>
-      </c>
-      <c r="L10" s="8">
+        <v>0.2954</v>
+      </c>
+      <c r="R10" s="8">
         <f t="shared" si="16"/>
-        <v>0.14416779999999998</v>
-      </c>
-      <c r="M10" s="14">
+        <v>0.27298</v>
+      </c>
+      <c r="S10" s="9">
         <f t="shared" si="17"/>
-        <v>0.1500522</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="6"/>
-        <v>0.22602</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="7"/>
-        <v>0.22602</v>
-      </c>
-      <c r="P10" s="14">
-        <f t="shared" si="8"/>
-        <v>0.2954</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="9"/>
-        <v>0.2954</v>
-      </c>
-      <c r="R10" s="8">
-        <f t="shared" si="10"/>
-        <v>0.27298</v>
-      </c>
-      <c r="S10" s="9">
-        <f t="shared" si="11"/>
         <v>0.27298</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="18"/>
-        <v>0.27526140000000004</v>
+        <v>0.251583</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="19"/>
-        <v>0.31669860000000005</v>
+        <v>0.34037699999999999</v>
       </c>
       <c r="V10" s="19">
         <v>7.8090000000000007E-2</v>
@@ -13952,7 +13952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CF59E3-8B2D-AE4F-B62F-4D35C34721B5}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
